--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8941615-5A3D-42C2-9FFF-608330D566BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0021C-570F-4ED0-9F3E-B725DA105ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="255" windowWidth="24870" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="420" windowWidth="24870" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="230">
   <si>
     <t>Item</t>
   </si>
@@ -529,9 +529,6 @@
     <t>Gather &amp; Wash Equipment</t>
   </si>
   <si>
-    <t>Cube and Toast Bread</t>
-  </si>
-  <si>
     <t>Gravy Prep</t>
   </si>
   <si>
@@ -616,9 +613,6 @@
     <t>Liquor Store</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>1 C</t>
   </si>
   <si>
@@ -725,6 +719,12 @@
   </si>
   <si>
     <t>As needed</t>
+  </si>
+  <si>
+    <t>Prep Turkey</t>
+  </si>
+  <si>
+    <t>Spatchcock mean</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1381,6 +1381,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,10 +1504,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cook Time'!$B$8:$B$12</c:f>
+              <c:f>'Cook Time'!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.87</c:v>
                 </c:pt>
@@ -1521,15 +1523,18 @@
                 <c:pt idx="4">
                   <c:v>16.72</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cook Time'!$C$8:$C$12</c:f>
+              <c:f>'Cook Time'!$C$8:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1544,6 +1549,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,9 +2035,7 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2059,7 +2065,7 @@
         <v>84</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="7" t="s">
@@ -2068,10 +2074,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>174</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="45" t="s">
@@ -2081,7 +2087,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>101</v>
@@ -2092,20 +2098,20 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>102</v>
@@ -2116,20 +2122,20 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>190</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>103</v>
@@ -2143,17 +2149,17 @@
         <v>31</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>105</v>
@@ -2167,17 +2173,17 @@
         <v>31</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>107</v>
@@ -2191,11 +2197,9 @@
         <v>90</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>115</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="21" t="s">
         <v>91</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>109</v>
@@ -2214,7 +2218,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>41</v>
@@ -2224,16 +2228,16 @@
         <v>32</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>41</v>
@@ -2243,10 +2247,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -2257,9 +2261,7 @@
       <c r="B10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>115</v>
-      </c>
+      <c r="C10" s="32"/>
       <c r="D10" s="21" t="s">
         <v>88</v>
       </c>
@@ -2267,7 +2269,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2277,9 +2279,7 @@
       <c r="B11" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>115</v>
-      </c>
+      <c r="C11" s="32"/>
       <c r="D11" s="21" t="s">
         <v>88</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>89</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -2298,9 +2298,7 @@
       <c r="B12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>115</v>
-      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="45" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2318,25 +2316,23 @@
       <c r="B13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>115</v>
-      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="22" t="s">
@@ -2346,7 +2342,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2361,10 +2357,10 @@
         <v>36</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2379,10 +2375,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2397,10 +2393,10 @@
         <v>28</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2412,13 +2408,13 @@
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2433,10 +2429,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,9 +2442,7 @@
       <c r="B20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>115</v>
-      </c>
+      <c r="C20" s="35"/>
       <c r="D20" s="45" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2450,7 @@
         <v>89</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,71 +2460,69 @@
       <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>115</v>
-      </c>
+      <c r="C21" s="30"/>
       <c r="D21" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>186</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>187</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2545,10 +2537,10 @@
         <v>88</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="21"/>
     </row>
@@ -2557,17 +2549,17 @@
         <v>4</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G26" s="21"/>
     </row>
@@ -2583,10 +2575,10 @@
         <v>36</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2601,10 +2593,10 @@
         <v>36</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2614,7 @@
         <v>86</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2630,17 +2622,17 @@
         <v>160</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2655,10 +2647,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2673,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2684,17 +2676,17 @@
         <v>25</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2702,19 +2694,17 @@
         <v>95</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>193</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C34" s="33"/>
       <c r="D34" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2724,57 +2714,51 @@
       <c r="B35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>193</v>
-      </c>
+      <c r="C35" s="36"/>
       <c r="D35" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>193</v>
-      </c>
+      <c r="C36" s="33"/>
       <c r="D36" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>193</v>
-      </c>
+      <c r="C37" s="36"/>
       <c r="D37" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G37" s="21"/>
     </row>
@@ -2783,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="45" t="s">
@@ -2793,7 +2777,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2801,7 +2785,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="45" t="s">
@@ -2811,15 +2795,15 @@
         <v>86</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="45" t="s">
@@ -2829,15 +2813,15 @@
         <v>86</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="45" t="s">
@@ -2847,15 +2831,15 @@
         <v>86</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="45" t="s">
@@ -2865,7 +2849,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,7 +2867,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2901,7 +2885,7 @@
         <v>86</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2919,7 +2903,7 @@
         <v>86</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,10 +2918,10 @@
         <v>36</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2955,7 +2939,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2963,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="45" t="s">
@@ -2973,15 +2957,15 @@
         <v>86</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="45" t="s">
@@ -2991,12 +2975,12 @@
         <v>86</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>18</v>
@@ -3009,12 +2993,12 @@
         <v>86</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>17</v>
@@ -3027,7 +3011,7 @@
         <v>86</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3045,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3063,7 +3047,7 @@
         <v>86</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G53" s="21"/>
     </row>
@@ -3082,25 +3066,25 @@
         <v>86</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>183</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>184</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3118,7 +3102,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3133,10 +3117,10 @@
         <v>11</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3144,17 +3128,17 @@
         <v>13</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3169,15 +3153,15 @@
         <v>34</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>7</v>
@@ -3187,15 +3171,15 @@
         <v>11</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>8</v>
@@ -3205,33 +3189,33 @@
         <v>28</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>8</v>
@@ -3241,15 +3225,15 @@
         <v>32</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>9</v>
@@ -3259,10 +3243,10 @@
         <v>19</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3277,10 +3261,10 @@
         <v>34</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3288,17 +3272,17 @@
         <v>20</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3313,10 +3297,10 @@
         <v>28</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G67" s="21"/>
     </row>
@@ -3329,13 +3313,13 @@
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3350,10 +3334,10 @@
         <v>32</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3368,10 +3352,10 @@
         <v>19</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3383,13 +3367,13 @@
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3404,10 +3388,10 @@
         <v>36</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G72" s="21"/>
     </row>
@@ -3423,16 +3407,16 @@
         <v>34</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>101</v>
@@ -3442,28 +3426,28 @@
         <v>11</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,7 +4475,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C8:C12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,6 +4638,33 @@
       </c>
       <c r="D12" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>13.59</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="69">
+        <f>AVERAGE(B8:B13)</f>
+        <v>14.39</v>
+      </c>
+      <c r="C20" s="70">
+        <f>AVERAGE(C8:C13)</f>
+        <v>94.666666666666671</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4690,7 @@
   <dimension ref="A2:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,11 +4903,11 @@
       </c>
       <c r="D4" s="61">
         <f t="shared" ref="D4:D21" ca="1" si="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.37500000000000006</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="E4" s="61">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.41666666666666674</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13">
@@ -4922,35 +4933,35 @@
       </c>
       <c r="N4" s="13" t="str">
         <f ca="1">IF(N$3&gt;=$D4,IF(N$3&lt;$E4,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P4" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q4" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R4" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="O4" s="13" t="str">
+      <c r="S4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="P4" s="13" t="str">
+      <c r="T4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="Q4" s="13" t="str">
+      <c r="U4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
-      </c>
-      <c r="R4" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S4" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="T4" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="U4" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
       </c>
       <c r="V4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5066,11 +5077,11 @@
       </c>
       <c r="D5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41666666666666674</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="E5" s="60">
         <f t="shared" ref="E5:E22" ca="1" si="3">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.45833333333333343</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
@@ -5112,35 +5123,35 @@
       </c>
       <c r="R5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="S5" s="8" t="str">
+      <c r="W5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="T5" s="8" t="str">
+      <c r="X5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="U5" s="8" t="str">
+      <c r="Y5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
-      </c>
-      <c r="V5" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="W5" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="X5" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Y5" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
       </c>
       <c r="Z5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5240,11 +5251,11 @@
       </c>
       <c r="D6" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45833333333333343</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E6" s="60">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56250000000000011</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
@@ -5302,59 +5313,59 @@
       </c>
       <c r="V6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="W6" s="8" t="str">
+      <c r="AA6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="X6" s="8" t="str">
+      <c r="AB6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="Y6" s="8" t="str">
+      <c r="AC6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="Z6" s="8" t="str">
+      <c r="AD6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AA6" s="8" t="str">
+      <c r="AE6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AB6" s="8" t="str">
+      <c r="AF6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AC6" s="8" t="str">
+      <c r="AG6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AD6" s="8" t="str">
+      <c r="AH6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AE6" s="8" t="str">
+      <c r="AI6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
-      </c>
-      <c r="AF6" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AG6" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AH6" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AI6" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
       </c>
       <c r="AJ6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5414,11 +5425,11 @@
       </c>
       <c r="D7" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56250000000000011</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="E7" s="60">
         <f ca="1">IF(ISNUMBER(G7),INDIRECT("D"&amp;G7+3),D7+TIME(0,C7,0))</f>
-        <v>0.60416666666666674</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8">
@@ -5516,35 +5527,35 @@
       </c>
       <c r="AF7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AG7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AH7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AI7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AG7" s="8" t="str">
+      <c r="AK7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AH7" s="8" t="str">
+      <c r="AL7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="AI7" s="8" t="str">
+      <c r="AM7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
-      </c>
-      <c r="AJ7" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AK7" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL7" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AM7" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
       </c>
       <c r="AN7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5580,15 +5591,11 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="8">
-        <v>60</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60416666666666674</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="60">
         <f t="shared" ca="1" si="3"/>
@@ -5706,19 +5713,19 @@
       </c>
       <c r="AJ8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8175,7 +8182,7 @@
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,11 +8395,11 @@
       </c>
       <c r="D4" s="65">
         <f t="shared" ref="D4:D21" ca="1" si="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.45833333333333343</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E4" s="65">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.54166666666666674</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50">
@@ -8438,15 +8445,15 @@
       </c>
       <c r="S4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8470,15 +8477,15 @@
       </c>
       <c r="AA4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD4" s="50" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8558,15 +8565,15 @@
         <v>32</v>
       </c>
       <c r="C5" s="8">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54166666666666674</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E5" s="60">
         <f t="shared" ref="E5:E22" ca="1" si="3">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.60416666666666674</v>
+        <v>0.59375</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
@@ -8644,15 +8651,15 @@
       </c>
       <c r="AA5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8676,7 +8683,7 @@
       </c>
       <c r="AI5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8729,14 +8736,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" s="60">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.60416666666666674</v>
+        <v>0.59375</v>
       </c>
       <c r="E6" s="60">
         <f t="shared" ca="1" si="3"/>
@@ -8850,7 +8857,7 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11672,7 +11679,7 @@
   <dimension ref="A2:AT24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11876,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="50">
         <v>30</v>
@@ -12050,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="48">
         <v>30</v>
@@ -12224,10 +12231,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C6" s="48">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D6" s="60">
         <f t="shared" ca="1" si="12"/>
@@ -12235,7 +12242,7 @@
       </c>
       <c r="E6" s="60">
         <f t="shared" ref="E6:E23" ca="1" si="15">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
@@ -12293,19 +12300,19 @@
       </c>
       <c r="V6" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W6" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X6" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y6" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z6" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12398,18 +12405,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="48">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D7" s="64">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.49999999999999994</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="E7" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="8">
@@ -12467,19 +12474,19 @@
       </c>
       <c r="V7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12491,11 +12498,11 @@
       </c>
       <c r="AB7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD7" s="48" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12572,18 +12579,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="48">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="E8" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8">
@@ -12665,23 +12672,23 @@
       </c>
       <c r="AB8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG8" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12746,18 +12753,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C9" s="48">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D9" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>0.59375</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
@@ -12847,23 +12854,23 @@
       </c>
       <c r="AD9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI9" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -12920,18 +12927,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="C10" s="48">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D10" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59375</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E10" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
@@ -13033,15 +13040,15 @@
       </c>
       <c r="AG10" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH10" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI10" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ10" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13093,11 +13100,15 @@
         <f>A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="48">
+        <v>15</v>
+      </c>
       <c r="D11" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E11" s="60">
         <f t="shared" ca="1" si="15"/>
@@ -13211,7 +13222,7 @@
       </c>
       <c r="AI11" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ11" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13704,7 +13715,7 @@
         <v/>
       </c>
       <c r="AE14" s="8" t="str">
-        <f t="shared" ref="AE14:AK14" ca="1" si="17">IF(AE$3&gt;=$D14,IF(AE$3&lt;$E14,"X",""),"")</f>
+        <f t="shared" ref="AE14:AI14" ca="1" si="17">IF(AE$3&gt;=$D14,IF(AE$3&lt;$E14,"X",""),"")</f>
         <v/>
       </c>
       <c r="AF14" s="8" t="str">
@@ -14114,7 +14125,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="60">
@@ -14286,14 +14297,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="48">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D18" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E18" s="60">
         <f t="shared" ca="1" si="15"/>
@@ -14355,7 +14366,7 @@
       </c>
       <c r="V18" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W18" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -14460,7 +14471,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="48">
         <v>90</v>
@@ -14637,11 +14648,11 @@
         <v>78</v>
       </c>
       <c r="C20" s="48">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D20" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5625</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E20" s="60">
         <f t="shared" ca="1" si="15"/>
@@ -14739,7 +14750,7 @@
       </c>
       <c r="AE20" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF20" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -14808,7 +14819,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="48">
         <v>30</v>
@@ -14982,7 +14993,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" s="48">
         <v>15</v>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0021C-570F-4ED0-9F3E-B725DA105ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="420" windowWidth="24870" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="420" windowWidth="24870" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$1:$E$84</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="238">
   <si>
     <t>Item</t>
   </si>
@@ -64,9 +63,6 @@
     <t>1 T</t>
   </si>
   <si>
-    <t>1T</t>
-  </si>
-  <si>
     <t>Vegetable Oil</t>
   </si>
   <si>
@@ -725,12 +721,39 @@
   </si>
   <si>
     <t>Spatchcock mean</t>
+  </si>
+  <si>
+    <t>1 Bag</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Lump Charcoal</t>
+  </si>
+  <si>
+    <t>Simon &amp; Garfunkel Rub</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Memphis Meat Dust</t>
+  </si>
+  <si>
+    <t>1/2 Cup</t>
+  </si>
+  <si>
+    <t>Garlic Powder</t>
+  </si>
+  <si>
+    <t>White Pepper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1432,7 +1455,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1557,7 +1580,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA36-4B82-A5AD-543D01B1A8F5}"/>
             </c:ext>
@@ -1571,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196868504"/>
-        <c:axId val="196866152"/>
+        <c:axId val="115070144"/>
+        <c:axId val="115069360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196868504"/>
+        <c:axId val="115070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -1606,14 +1629,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196866152"/>
+        <c:crossAx val="115069360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196866152"/>
+        <c:axId val="115069360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1645,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196868504"/>
+        <c:crossAx val="115070144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
@@ -1688,7 +1711,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,23 +1808,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1837,23 +1843,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2029,13 +2018,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2062,1400 +2053,1538 @@
         <v>1</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>193</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>193</v>
+        <v>226</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>218</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>218</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>216</v>
+      <c r="E7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="36"/>
+        <v>175</v>
+      </c>
+      <c r="C8" s="31"/>
       <c r="D8" s="45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="C9" s="31"/>
       <c r="D9" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="21" t="s">
-        <v>88</v>
+        <v>199</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>216</v>
+        <v>85</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="21" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="B11" s="38">
+        <v>16</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="38">
+        <v>24</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="45" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="30"/>
+        <v>176</v>
+      </c>
+      <c r="C13" s="31"/>
       <c r="D13" s="45" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="38">
+        <v>20</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="45" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>216</v>
+        <v>88</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="45" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="45" t="s">
-        <v>28</v>
+        <v>118</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="45" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="C19" s="33"/>
       <c r="D19" s="45" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>216</v>
+        <v>192</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="45" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="45" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>193</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>219</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="21" t="s">
-        <v>88</v>
+        <v>197</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="C26" s="33"/>
       <c r="D26" s="45" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="33"/>
       <c r="D27" s="45" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="27"/>
+        <v>111</v>
+      </c>
+      <c r="C28" s="33"/>
       <c r="D28" s="45" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C29" s="33"/>
       <c r="D29" s="45" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="38" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="45" t="s">
+      <c r="B43" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="45" t="s">
+      <c r="B45" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>12</v>
-      </c>
       <c r="B48" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="C48" s="30"/>
       <c r="D48" s="45" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="31"/>
+        <v>172</v>
+      </c>
+      <c r="C49" s="36"/>
       <c r="D49" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="36"/>
       <c r="D50" s="45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="C51" s="36"/>
       <c r="D51" s="45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C53" s="36"/>
       <c r="D53" s="45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="C54" s="36"/>
       <c r="D54" s="45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="30"/>
+        <v>126</v>
+      </c>
+      <c r="C55" s="36"/>
       <c r="D55" s="45" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="C56" s="36"/>
       <c r="D56" s="45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C57" s="36"/>
       <c r="D57" s="45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="38">
-        <v>16</v>
-      </c>
-      <c r="C59" s="31"/>
+        <v>194</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="36"/>
       <c r="D59" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="C60" s="36"/>
       <c r="D60" s="45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="35"/>
+        <v>191</v>
+      </c>
+      <c r="C61" s="36"/>
       <c r="D61" s="45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>193</v>
+        <v>35</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="C63" s="27"/>
       <c r="D63" s="45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="C64" s="27"/>
       <c r="D64" s="45" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="38">
-        <v>24</v>
-      </c>
-      <c r="C65" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="27"/>
       <c r="D65" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="C66" s="27"/>
       <c r="D66" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="C67" s="27"/>
       <c r="D67" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>211</v>
+        <v>192</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="30"/>
+        <v>151</v>
+      </c>
+      <c r="C68" s="27"/>
       <c r="D68" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>193</v>
+        <v>35</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="C69" s="27"/>
       <c r="D69" s="45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>164</v>
       </c>
       <c r="C70" s="28"/>
-      <c r="D70" s="46" t="s">
-        <v>19</v>
+      <c r="D70" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>211</v>
+        <v>85</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="30"/>
+        <v>166</v>
+      </c>
+      <c r="C71" s="28"/>
       <c r="D71" s="45" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="27"/>
+        <v>167</v>
+      </c>
+      <c r="C72" s="28"/>
       <c r="D72" s="45" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="38">
-        <v>20</v>
-      </c>
-      <c r="C73" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="28"/>
       <c r="D73" s="45" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="C74" s="28"/>
       <c r="D74" s="45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B75" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>191</v>
-      </c>
       <c r="F75" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="21"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>210</v>
+      </c>
       <c r="G77" s="21"/>
     </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F78" xr:uid="{A10B5CB1-DB58-4D49-BE3B-50D02AB6DCF0}"/>
+  <autoFilter ref="A1:F78">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Appetizers"/>
+        <filter val="Cranberry Sauce"/>
+        <filter val="Dessert"/>
+        <filter val="Gravy"/>
+        <filter val="Stuffing"/>
+        <filter val="Sweet Potatoes"/>
+        <filter val="Turkey"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:F78">
+      <sortCondition ref="D1:D78"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:F80">
     <sortCondition ref="F2:F80"/>
     <sortCondition ref="A2:A80"/>
@@ -3466,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3506,74 +3635,74 @@
         <v>6</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>64</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3581,199 +3710,199 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -3786,294 +3915,294 @@
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>132</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>133</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="38">
         <v>1</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="38">
         <v>2</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>129</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>130</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4082,143 +4211,143 @@
         <v>4</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4226,59 +4355,59 @@
         <v>6</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>48</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>49</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4286,120 +4415,120 @@
         <v>3</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4407,59 +4536,59 @@
         <v>3</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4488,13 +4617,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,7 +4637,7 @@
         <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,7 +4651,7 @@
         <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,7 +4710,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,7 +4724,7 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,7 +4752,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,7 +4766,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,12 +4780,12 @@
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="69">
         <f>AVERAGE(B8:B13)</f>
@@ -4683,14 +4812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,36 +4839,36 @@
   <sheetData>
     <row r="2" spans="1:48" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>75</v>
       </c>
       <c r="J3" s="9">
         <v>0.33333333333333331</v>
@@ -4896,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13">
         <v>60</v>
@@ -5070,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="8">
         <v>60</v>
@@ -5244,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="8">
         <v>150</v>
@@ -5418,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8">
         <v>60</v>
@@ -7972,7 +8101,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="18">
         <v>0</v>
@@ -8175,14 +8304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,36 +8331,36 @@
   <sheetData>
     <row r="2" spans="1:48" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>75</v>
       </c>
       <c r="J3" s="9">
         <v>0.33333333333333331</v>
@@ -8388,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="50">
         <v>120</v>
@@ -8562,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
         <v>120</v>
@@ -8736,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8">
         <v>75</v>
@@ -11460,7 +11589,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="18">
         <v>0</v>
@@ -11672,7 +11801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11699,36 +11828,36 @@
   <sheetData>
     <row r="2" spans="1:46" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>75</v>
       </c>
       <c r="J3" s="9">
         <v>0.33333333333333331</v>
@@ -11883,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="50">
         <v>30</v>
@@ -12057,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="48">
         <v>30</v>
@@ -12231,7 +12360,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="48">
         <v>30</v>
@@ -12405,7 +12534,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="48">
         <v>90</v>
@@ -12579,7 +12708,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="48">
         <v>30</v>
@@ -12753,7 +12882,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="48">
         <v>45</v>
@@ -12927,7 +13056,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="48">
         <v>30</v>
@@ -13101,7 +13230,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="48">
         <v>15</v>
@@ -14125,7 +14254,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="60">
@@ -14297,7 +14426,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="48">
         <v>90</v>
@@ -14471,7 +14600,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="48">
         <v>90</v>
@@ -14645,7 +14774,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="48">
         <v>60</v>
@@ -14819,7 +14948,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="48">
         <v>30</v>
@@ -14993,7 +15122,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" s="48">
         <v>15</v>
@@ -15167,7 +15296,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="62">

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A70B191-ED64-4FBB-8395-EF9915B5E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="420" windowWidth="24870" windowHeight="14775"/>
+    <workbookView xWindow="30420" yWindow="615" windowWidth="24315" windowHeight="14895" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -15,18 +16,21 @@
     <sheet name="New Thanksgiving" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$1:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'New Thanksgiving'!$A$2:$AT$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'New Tuesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$1:$E$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$1:$F$82</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="238">
   <si>
     <t>Item</t>
   </si>
@@ -753,7 +757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1455,7 +1459,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1580,7 +1584,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA36-4B82-A5AD-543D01B1A8F5}"/>
             </c:ext>
@@ -1711,7 +1715,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,6 +1812,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1843,6 +1864,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2018,14 +2056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,22 +2101,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>192</v>
+        <v>172</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>100</v>
@@ -2087,22 +2125,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>88</v>
+      <c r="E3" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>101</v>
@@ -2111,22 +2149,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>88</v>
+        <v>170</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>102</v>
@@ -2135,22 +2173,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>192</v>
+      <c r="E5" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>104</v>
@@ -2159,22 +2199,24 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="32"/>
+        <v>221</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>218</v>
+        <v>88</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>106</v>
@@ -2183,22 +2225,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>192</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>108</v>
@@ -2207,271 +2251,279 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="45" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="F9" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="38">
-        <v>16</v>
-      </c>
-      <c r="C11" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38">
-        <v>24</v>
-      </c>
-      <c r="C12" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="36"/>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="38">
-        <v>20</v>
-      </c>
-      <c r="C14" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="36"/>
       <c r="D14" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="21" t="s">
-        <v>87</v>
+        <v>193</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="21" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="33"/>
+        <v>175</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>114</v>
+      </c>
       <c r="D22" s="45" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>192</v>
@@ -2480,234 +2532,236 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="45" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="36"/>
       <c r="D28" s="45" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="45" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="27"/>
       <c r="D30" s="45" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="C31" s="27"/>
       <c r="D31" s="45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="C32" s="27"/>
       <c r="D32" s="45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="35"/>
+        <v>164</v>
+      </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="45" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>215</v>
+        <v>85</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="35"/>
+        <v>174</v>
+      </c>
+      <c r="C34" s="31"/>
       <c r="D34" s="45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>215</v>
+        <v>85</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="35"/>
+        <v>179</v>
+      </c>
+      <c r="C35" s="31"/>
       <c r="D35" s="45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>85</v>
@@ -2716,40 +2770,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="C36" s="33"/>
       <c r="D36" s="45" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="C37" s="33"/>
       <c r="D37" s="45" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G37" s="21"/>
     </row>
@@ -2953,101 +3007,101 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="36"/>
+        <v>17</v>
+      </c>
+      <c r="C49" s="33"/>
       <c r="D49" s="45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="36"/>
+        <v>16</v>
+      </c>
+      <c r="C50" s="33"/>
       <c r="D50" s="45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="36"/>
+        <v>13</v>
+      </c>
+      <c r="C51" s="33"/>
       <c r="D51" s="45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="C52" s="35"/>
       <c r="D52" s="45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="45" t="s">
@@ -3062,10 +3116,10 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="45" t="s">
@@ -3080,10 +3134,10 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="45" t="s">
@@ -3096,233 +3150,233 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E57" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F58" s="22" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="36"/>
+        <v>166</v>
+      </c>
+      <c r="C59" s="28"/>
       <c r="D59" s="45" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="36"/>
+        <v>167</v>
+      </c>
+      <c r="C60" s="28"/>
       <c r="D60" s="45" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="C61" s="28"/>
       <c r="D61" s="45" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="27"/>
+        <v>111</v>
+      </c>
+      <c r="C62" s="33"/>
       <c r="D62" s="45" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="27"/>
+        <v>173</v>
+      </c>
+      <c r="C63" s="36"/>
       <c r="D63" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="B65" s="38">
+        <v>16</v>
+      </c>
+      <c r="C65" s="31"/>
       <c r="D65" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="B66" s="38">
+        <v>24</v>
+      </c>
+      <c r="C66" s="31"/>
       <c r="D66" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="27"/>
+        <v>176</v>
+      </c>
+      <c r="C67" s="31"/>
       <c r="D67" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>212</v>
+      <c r="F67" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="B68" s="38">
+        <v>20</v>
+      </c>
+      <c r="C68" s="31"/>
       <c r="D68" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="27"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="45" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>192</v>
@@ -3331,90 +3385,90 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="C70" s="35"/>
       <c r="D70" s="45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C71" s="35"/>
       <c r="D71" s="45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="C72" s="36"/>
       <c r="D72" s="45" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="C73" s="36"/>
       <c r="D73" s="45" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C74" s="27"/>
       <c r="D74" s="45" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>192</v>
@@ -3423,15 +3477,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>25</v>
+        <v>194</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="C75" s="28"/>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="21" t="s">
@@ -3441,25 +3495,25 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>232</v>
       </c>
@@ -3478,7 +3532,7 @@
       </c>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>234</v>
       </c>
@@ -3496,12 +3550,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C79" s="28"/>
       <c r="D79" s="46" t="s">
@@ -3511,15 +3565,15 @@
         <v>192</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="C80" s="28"/>
       <c r="D80" s="46" t="s">
@@ -3529,77 +3583,228 @@
         <v>192</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>210</v>
+      <c r="C86" s="30"/>
+      <c r="D86" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78">
+  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Carrots"/>
+        <filter val="Celery"/>
+        <filter val="Chicken Broth"/>
+        <filter val="Italian Parsley"/>
+        <filter val="Onion"/>
+        <filter val="Rosemary"/>
+        <filter val="Sage"/>
+        <filter val="Shallots"/>
+        <filter val="Thyme"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
-      <filters blank="1">
+      <filters>
         <filter val="Appetizers"/>
         <filter val="Cranberry Sauce"/>
         <filter val="Dessert"/>
         <filter val="Gravy"/>
+        <filter val="Potatoes"/>
         <filter val="Stuffing"/>
         <filter val="Sweet Potatoes"/>
         <filter val="Turkey"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:F78">
-      <sortCondition ref="D1:D78"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F82">
+      <sortCondition ref="F1:F91"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:F80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
     <sortCondition ref="F2:F80"/>
     <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,142 +4539,6 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
@@ -4597,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4802,7 +4871,7 @@
     <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:C7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8304,7 +8373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11801,14 +11870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AT24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A70B191-ED64-4FBB-8395-EF9915B5E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7EFD78-34E2-497D-831F-69E90EA70E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="615" windowWidth="24315" windowHeight="14895" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="150" windowWidth="27045" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -2057,13 +2057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,22 +2101,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>214</v>
+        <v>232</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>100</v>
@@ -2125,22 +2125,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22" t="s">
-        <v>90</v>
+        <v>234</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>101</v>
@@ -2149,18 +2149,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -2173,7 +2173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>89</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>178</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>91</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>29</v>
       </c>
@@ -2272,33 +2272,35 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="33"/>
+        <v>170</v>
+      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="45" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" s="45" t="s">
         <v>27</v>
       </c>
@@ -2309,16 +2311,16 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="35"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="45" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>192</v>
@@ -2328,14 +2330,16 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" s="45" t="s">
         <v>27</v>
       </c>
@@ -2346,16 +2350,16 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="35"/>
       <c r="D13" s="45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>192</v>
@@ -2364,12 +2368,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="45" t="s">
@@ -2382,16 +2386,16 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="C15" s="36"/>
       <c r="D15" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>192</v>
@@ -2400,12 +2404,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="45" t="s">
@@ -2418,30 +2422,30 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="46" t="s">
@@ -2451,57 +2455,53 @@
         <v>192</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="22" t="s">
-        <v>90</v>
+        <v>231</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>114</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C20" s="32"/>
       <c r="D20" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>114</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="22" t="s">
         <v>90</v>
       </c>
@@ -2512,38 +2512,34 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B23" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="45" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="45" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>192</v>
@@ -2552,16 +2548,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="45" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>192</v>
@@ -2570,12 +2566,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="45" t="s">
@@ -2589,12 +2585,12 @@
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="45" t="s">
@@ -2608,12 +2604,12 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="45" t="s">
@@ -2626,16 +2622,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="C28" s="33"/>
       <c r="D28" s="45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>192</v>
@@ -2644,12 +2640,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="45" t="s">
@@ -2662,16 +2658,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="36"/>
       <c r="D30" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>192</v>
@@ -2680,12 +2676,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="45" t="s">
@@ -2698,159 +2694,161 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="28"/>
+        <v>188</v>
+      </c>
+      <c r="C33" s="30"/>
       <c r="D33" s="45" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="31"/>
+        <v>186</v>
+      </c>
+      <c r="C34" s="30"/>
       <c r="D34" s="45" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="C35" s="30"/>
       <c r="D35" s="45" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="33"/>
+        <v>185</v>
+      </c>
+      <c r="C36" s="30"/>
       <c r="D36" s="45" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="33"/>
+        <v>183</v>
+      </c>
+      <c r="C37" s="30"/>
       <c r="D37" s="45" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D40" s="45" t="s">
         <v>180</v>
       </c>
@@ -2861,12 +2859,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="45" t="s">
@@ -2876,17 +2874,19 @@
         <v>192</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D42" s="45" t="s">
         <v>180</v>
       </c>
@@ -2897,106 +2897,106 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="C43" s="27"/>
       <c r="D43" s="45" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="C44" s="33"/>
       <c r="D44" s="45" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="30"/>
+        <v>173</v>
+      </c>
+      <c r="C45" s="36"/>
       <c r="D45" s="45" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="45" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="30"/>
+        <v>110</v>
+      </c>
+      <c r="B47" s="38">
+        <v>16</v>
+      </c>
+      <c r="C47" s="31"/>
       <c r="D47" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="38">
+        <v>24</v>
+      </c>
+      <c r="C48" s="31"/>
       <c r="D48" s="45" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>192</v>
@@ -3007,691 +3007,693 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="33"/>
+        <v>176</v>
+      </c>
+      <c r="C49" s="31"/>
       <c r="D49" s="45" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="B50" s="38">
+        <v>20</v>
+      </c>
+      <c r="C50" s="31"/>
       <c r="D50" s="45" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="27"/>
       <c r="D56" s="45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="C57" s="28"/>
       <c r="D57" s="45" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="45" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>166</v>
+        <v>236</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="C59" s="28"/>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="21" t="s">
-        <v>85</v>
+      <c r="E59" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>167</v>
+        <v>237</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="C60" s="28"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>85</v>
+      <c r="E60" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="C61" s="33"/>
       <c r="D61" s="45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="33"/>
+        <v>191</v>
+      </c>
+      <c r="C62" s="36"/>
       <c r="D62" s="45" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="36"/>
+        <v>97</v>
+      </c>
+      <c r="C63" s="30"/>
       <c r="D63" s="45" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>213</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="38">
+      <c r="B70" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="33"/>
+      <c r="D76" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="38">
-        <v>24</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="38">
-        <v>20</v>
-      </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="45" t="s">
+      <c r="C77" s="33"/>
+      <c r="D77" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="45" t="s">
+      <c r="E77" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="33"/>
+      <c r="D78" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="35"/>
+      <c r="D79" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="45" t="s">
+      <c r="E79" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="45" t="s">
+      <c r="E80" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>10</v>
-      </c>
       <c r="E81" s="21" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="C83" s="36"/>
       <c r="D83" s="45" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="30"/>
+        <v>151</v>
+      </c>
+      <c r="C84" s="27"/>
       <c r="D84" s="45" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="30"/>
+        <v>166</v>
+      </c>
+      <c r="C85" s="28"/>
       <c r="D85" s="45" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E85" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="30"/>
+        <v>167</v>
+      </c>
+      <c r="C86" s="28"/>
       <c r="D86" s="45" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="30"/>
+      <c r="C87" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D87" s="45" t="s">
         <v>45</v>
       </c>
@@ -3699,52 +3701,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="30"/>
+        <v>165</v>
+      </c>
+      <c r="C88" s="28"/>
       <c r="D88" s="45" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="45" t="s">
         <v>45</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="45" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>37</v>
       </c>
@@ -3761,33 +3766,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Carrots"/>
-        <filter val="Celery"/>
-        <filter val="Chicken Broth"/>
-        <filter val="Italian Parsley"/>
-        <filter val="Onion"/>
-        <filter val="Rosemary"/>
-        <filter val="Sage"/>
-        <filter val="Shallots"/>
-        <filter val="Thyme"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Appetizers"/>
-        <filter val="Cranberry Sauce"/>
-        <filter val="Dessert"/>
-        <filter val="Gravy"/>
-        <filter val="Potatoes"/>
-        <filter val="Stuffing"/>
-        <filter val="Sweet Potatoes"/>
-        <filter val="Turkey"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F82">
-      <sortCondition ref="F1:F91"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+      <sortCondition ref="E1:E91"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
@@ -3803,7 +3783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD59"/>
     </sheetView>
   </sheetViews>
@@ -11876,8 +11856,8 @@
   </sheetPr>
   <dimension ref="A2:AT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7EFD78-34E2-497D-831F-69E90EA70E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C560B-276C-4230-B14A-9BA78218D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="150" windowWidth="27045" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="150" windowWidth="27045" windowHeight="15165" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Cook Time" sheetId="2" r:id="rId3"/>
     <sheet name="New Tuesday" sheetId="8" r:id="rId4"/>
     <sheet name="New Wednesday" sheetId="9" r:id="rId5"/>
-    <sheet name="New Thanksgiving" sheetId="10" r:id="rId6"/>
+    <sheet name="Condensed Wednesday" sheetId="11" r:id="rId6"/>
+    <sheet name="New Thanksgiving" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$1:$F$91</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'New Thanksgiving'!$A$2:$AT$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'New Thanksgiving'!$A$2:$AT$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'New Tuesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$1:$F$82</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="238">
   <si>
     <t>Item</t>
   </si>
@@ -793,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +906,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1410,11 +1417,30 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -2062,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
@@ -4868,7 +4894,7 @@
   <dimension ref="A2:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8369,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8360,7 +8386,7 @@
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11840,7 +11866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11850,6 +11876,5100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF644570-B41D-4075-B336-358D80B3FEB8}">
+  <dimension ref="A2:BN30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="66" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:66" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:AT3" si="0">J3+TIME(0,15,0)</f>
+        <v>0.30208333333333337</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32291666666666674</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34375000000000011</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3541666666666668</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36458333333333348</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000017</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38541666666666685</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.39583333333333354</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.40625000000000022</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666691</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42708333333333359</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000028</v>
+      </c>
+      <c r="Y3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44791666666666696</v>
+      </c>
+      <c r="Z3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333365</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46875000000000033</v>
+      </c>
+      <c r="AB3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AC3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4895833333333337</v>
+      </c>
+      <c r="AD3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AE3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="AF3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.52083333333333359</v>
+      </c>
+      <c r="AG3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53125000000000022</v>
+      </c>
+      <c r="AH3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666685</v>
+      </c>
+      <c r="AI3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.55208333333333348</v>
+      </c>
+      <c r="AJ3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.56250000000000011</v>
+      </c>
+      <c r="AK3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.57291666666666674</v>
+      </c>
+      <c r="AL3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AM3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
+      </c>
+      <c r="AN3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="AO3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AP3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="AQ3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.63541666666666652</v>
+      </c>
+      <c r="AR3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333315</v>
+      </c>
+      <c r="AS3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65624999999999978</v>
+      </c>
+      <c r="AT3" s="72">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="AU3" s="72">
+        <f t="shared" ref="AU3" si="1">AT3+TIME(0,15,0)</f>
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="AV3" s="72">
+        <f t="shared" ref="AV3" si="2">AU3+TIME(0,15,0)</f>
+        <v>0.68749999999999967</v>
+      </c>
+      <c r="AW3" s="72">
+        <f t="shared" ref="AW3" si="3">AV3+TIME(0,15,0)</f>
+        <v>0.6979166666666663</v>
+      </c>
+      <c r="AX3" s="72">
+        <f t="shared" ref="AX3" si="4">AW3+TIME(0,15,0)</f>
+        <v>0.70833333333333293</v>
+      </c>
+      <c r="AY3" s="72">
+        <f t="shared" ref="AY3" si="5">AX3+TIME(0,15,0)</f>
+        <v>0.71874999999999956</v>
+      </c>
+      <c r="AZ3" s="72">
+        <f t="shared" ref="AZ3" si="6">AY3+TIME(0,15,0)</f>
+        <v>0.72916666666666619</v>
+      </c>
+      <c r="BA3" s="72">
+        <f t="shared" ref="BA3" si="7">AZ3+TIME(0,15,0)</f>
+        <v>0.73958333333333282</v>
+      </c>
+      <c r="BB3" s="72">
+        <f t="shared" ref="BB3" si="8">BA3+TIME(0,15,0)</f>
+        <v>0.74999999999999944</v>
+      </c>
+      <c r="BC3" s="72">
+        <f t="shared" ref="BC3" si="9">BB3+TIME(0,15,0)</f>
+        <v>0.76041666666666607</v>
+      </c>
+      <c r="BD3" s="72">
+        <f t="shared" ref="BD3" si="10">BC3+TIME(0,15,0)</f>
+        <v>0.7708333333333327</v>
+      </c>
+      <c r="BE3" s="72">
+        <f t="shared" ref="BE3" si="11">BD3+TIME(0,15,0)</f>
+        <v>0.78124999999999933</v>
+      </c>
+      <c r="BF3" s="72">
+        <f t="shared" ref="BF3" si="12">BE3+TIME(0,15,0)</f>
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="BG3" s="72">
+        <f t="shared" ref="BG3" si="13">BF3+TIME(0,15,0)</f>
+        <v>0.80208333333333259</v>
+      </c>
+      <c r="BH3" s="72">
+        <f t="shared" ref="BH3" si="14">BG3+TIME(0,15,0)</f>
+        <v>0.81249999999999922</v>
+      </c>
+      <c r="BI3" s="72">
+        <f t="shared" ref="BI3" si="15">BH3+TIME(0,15,0)</f>
+        <v>0.82291666666666585</v>
+      </c>
+      <c r="BJ3" s="72">
+        <f t="shared" ref="BJ3" si="16">BI3+TIME(0,15,0)</f>
+        <v>0.83333333333333248</v>
+      </c>
+      <c r="BK3" s="72">
+        <f t="shared" ref="BK3" si="17">BJ3+TIME(0,15,0)</f>
+        <v>0.84374999999999911</v>
+      </c>
+      <c r="BL3" s="72">
+        <f t="shared" ref="BL3" si="18">BK3+TIME(0,15,0)</f>
+        <v>0.85416666666666574</v>
+      </c>
+      <c r="BM3" s="72">
+        <f t="shared" ref="BM3" si="19">BL3+TIME(0,15,0)</f>
+        <v>0.86458333333333237</v>
+      </c>
+      <c r="BN3" s="73">
+        <f t="shared" ref="BN3" si="20">BM3+TIME(0,15,0)</f>
+        <v>0.874999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="13">
+        <v>60</v>
+      </c>
+      <c r="D4" s="61">
+        <f t="shared" ref="D4:D21" ca="1" si="21">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
+        <v>0.3958333333333332</v>
+      </c>
+      <c r="E4" s="61">
+        <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
+        <v>0.43749999999999989</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12" t="str">
+        <f t="shared" ref="J4:AT10" ca="1" si="22">IF(J$3&gt;=$D4,IF(J$3&lt;$E4,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N4" s="13" t="str">
+        <f ca="1">IF(N$3&gt;=$D4,IF(N$3&lt;$E4,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="U4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="V4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="W4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="X4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS4" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT4" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU4" s="8" t="str">
+        <f t="shared" ref="AU4:BK9" ca="1" si="23">IF(AU$3&gt;=$D4,IF(AU$3&lt;$E4,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="AV4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AW4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK4" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BL4" s="8" t="str">
+        <f t="shared" ref="BK4:BN19" ca="1" si="24">IF(BL$3&gt;=$D4,IF(BL$3&lt;$E4,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="BM4" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN4" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="8">
+        <v>60</v>
+      </c>
+      <c r="D5" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.43749999999999989</v>
+      </c>
+      <c r="E5" s="60">
+        <f t="shared" ref="E5:E22" ca="1" si="25">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
+        <v>0.47916666666666657</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="Y5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="Z5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AA5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AB5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT5" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AV5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AW5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ5" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK5" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL5" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM5" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN5" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <f t="shared" ref="A6:A22" si="26">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="8">
+        <v>150</v>
+      </c>
+      <c r="D6" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.47916666666666657</v>
+      </c>
+      <c r="E6" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AC6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AD6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AE6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AF6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AG6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AH6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AI6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AJ6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AK6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AL6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT6" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AV6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AW6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ6" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK6" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL6" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM6" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN6" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8">
+        <v>60</v>
+      </c>
+      <c r="D7" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E7" s="60">
+        <f ca="1">IF(ISNUMBER(G7),INDIRECT("D"&amp;G7+3),D7+TIME(0,C7,0))</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AM7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AN7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AO7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AP7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT7" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AV7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AW7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ7" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK7" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL7" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM7" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN7" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="48">
+        <v>120</v>
+      </c>
+      <c r="D8" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="E8" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AQ8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AR8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AS8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AT8" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>X</v>
+      </c>
+      <c r="AU8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="AV8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="AW8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="AX8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ8" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK8" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL8" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM8" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN8" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>120</v>
+      </c>
+      <c r="D9" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="E9" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="8">
+        <v>7</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="47" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT9" s="48" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AV9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AW9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="AY9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="AZ9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BA9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BB9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BC9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BD9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BE9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BF9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>X</v>
+      </c>
+      <c r="BG9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BH9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BI9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BJ9" s="48" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BK9" s="48" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL9" s="48" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM9" s="48" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN9" s="49" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E10" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Z10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AA10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AC10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AD10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AE10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AF10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AG10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AH10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AI10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AK10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AL10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AM10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ10" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR10" s="8" t="str">
+        <f t="shared" ref="AR10:BM22" ca="1" si="27">IF(AR$3&gt;=$D10,IF(AR$3&lt;$E10,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AT10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AU10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BL10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BM10" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BN10" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15" t="str">
+        <f t="shared" ref="J11:Y25" ca="1" si="28">IF(J$3&gt;=$D11,IF(J$3&lt;$E11,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y11" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z11" s="8" t="str">
+        <f t="shared" ref="Z11:AX22" ca="1" si="29">IF(Z$3&gt;=$D11,IF(Z$3&lt;$E11,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="AA11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AV11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AW11" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AX11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ11" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK11" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL11" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM11" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN11" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y12" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT12" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ12" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK12" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL12" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM12" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN12" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <f>A12+1</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y13" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT13" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ13" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK13" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL13" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM13" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN13" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y14" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT14" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ14" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK14" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL14" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM14" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN14" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E15" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y15" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT15" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ15" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK15" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL15" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM15" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN15" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>14</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y16" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT16" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ16" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK16" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL16" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM16" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN16" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y17" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT17" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ17" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK17" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL17" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM17" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN17" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E18" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y18" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT18" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ18" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK18" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL18" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM18" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN18" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y19" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT19" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ19" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK19" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL19" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM19" s="8" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BN19" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y20" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT20" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ20" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK20" s="8" t="str">
+        <f t="shared" ref="BK20:BN22" ca="1" si="30">IF(BK$3&gt;=$D20,IF(BK$3&lt;$E20,"X",""),"")</f>
+        <v/>
+      </c>
+      <c r="BL20" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BM20" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BN20" s="16" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="60">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>19</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="U21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="V21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="W21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="X21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y21" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Z21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AO21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AP21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AR21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AS21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AT21" s="8" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AU21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AV21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AW21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AX21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AY21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BA21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BB21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BC21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BD21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BE21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BF21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BG21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ21" s="8" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK21" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BL21" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BM21" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BN21" s="16" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="71">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E22" s="62">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="17" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="O22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="P22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Q22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="T22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="U22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="V22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="W22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="X22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Y22" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Z22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AA22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AB22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AC22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AD22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AE22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AF22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AG22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AH22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AI22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AK22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AL22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AM22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AN22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AO22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AP22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AQ22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AR22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AS22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AT22" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AU22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AV22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AW22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AX22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AY22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AZ22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BA22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BB22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BC22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BD22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BE22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BF22" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BG22" s="18" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BH22" s="18" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BI22" s="18" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BJ22" s="18" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="BK22" s="18" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BL22" s="18" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BM22" s="18" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BN22" s="19" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B27" s="42"/>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B28" s="42"/>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B29" s="42"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B30" s="42"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J4:AT23 AU4:BN22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11857,7 +16977,7 @@
   <dimension ref="A2:AT24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15530,7 +20650,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C560B-276C-4230-B14A-9BA78218D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488CDD0-BA33-447D-BB7F-79899805893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="150" windowWidth="27045" windowHeight="15165" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$1:$F$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Condensed Wednesday'!$A$2:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'New Thanksgiving'!$A$2:$AT$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'New Tuesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="239">
   <si>
     <t>Item</t>
   </si>
@@ -753,6 +754,9 @@
   </si>
   <si>
     <t>White Pepper</t>
+  </si>
+  <si>
+    <t>Condensed Wednesday Schedule</t>
   </si>
 </sst>
 </file>
@@ -11877,10 +11881,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF644570-B41D-4075-B336-358D80B3FEB8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:BN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11900,7 +11907,7 @@
   <sheetData>
     <row r="2" spans="1:66" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13954,7 +13961,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="16"/>
       <c r="J11" s="15" t="str">
-        <f t="shared" ref="J11:Y25" ca="1" si="28">IF(J$3&gt;=$D11,IF(J$3&lt;$E11,"X",""),"")</f>
+        <f t="shared" ref="J11:Y22" ca="1" si="28">IF(J$3&gt;=$D11,IF(J$3&lt;$E11,"X",""),"")</f>
         <v/>
       </c>
       <c r="K11" s="8" t="str">
@@ -14018,7 +14025,7 @@
         <v/>
       </c>
       <c r="Z11" s="8" t="str">
-        <f t="shared" ref="Z11:AX22" ca="1" si="29">IF(Z$3&gt;=$D11,IF(Z$3&lt;$E11,"X",""),"")</f>
+        <f t="shared" ref="Z11:AW22" ca="1" si="29">IF(Z$3&gt;=$D11,IF(Z$3&lt;$E11,"X",""),"")</f>
         <v/>
       </c>
       <c r="AA11" s="8" t="str">
@@ -16961,11 +16968,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23 AU4:BN22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20650,7 +20658,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAC901-DF3E-44F6-82BB-CEECFD12DDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B7E12-3F39-4124-9962-9B8C6C95C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1875" windowWidth="29100" windowHeight="18810" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1650" windowWidth="37425" windowHeight="17400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Condensed Wednesday" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Condensed Wednesday'!$A$2:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'New Thanksgiving'!$A$2:$AT$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'New Tuesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="250">
   <si>
     <t>Item</t>
   </si>
@@ -537,12 +537,6 @@
     <t>6 stalks</t>
   </si>
   <si>
-    <t>1-1/2 Cups</t>
-  </si>
-  <si>
-    <t>White Wine Vinegar</t>
-  </si>
-  <si>
     <t>1 cups</t>
   </si>
   <si>
@@ -642,9 +636,6 @@
     <t>Mashed Potatoes</t>
   </si>
   <si>
-    <t>Guests</t>
-  </si>
-  <si>
     <t>Finish Gravy</t>
   </si>
   <si>
@@ -771,16 +762,34 @@
     <t>Grill Turkey</t>
   </si>
   <si>
-    <t>Spinach</t>
-  </si>
-  <si>
-    <t>Grill/Drip Pan Prep</t>
-  </si>
-  <si>
     <t>Cool Down/Slack Time</t>
   </si>
   <si>
     <t>Baking/Roasting</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Stuffing Prep</t>
+  </si>
+  <si>
+    <t>Sweet Potato Prep</t>
+  </si>
+  <si>
+    <t>Carrot Prep</t>
+  </si>
+  <si>
+    <t>Grill Preheat</t>
+  </si>
+  <si>
+    <t>Rest/Mingle</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>from Natural Grocers:</t>
   </si>
 </sst>
 </file>
@@ -822,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,6 +1428,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1756,6 +1780,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57663</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16A43F2-B0B5-4827-5DEE-015200AEE766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="3848100"/>
+          <a:ext cx="3677163" cy="3248478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2090,10 +2158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2128,7 +2196,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="5" t="s">
@@ -2137,17 +2205,17 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
-        <v>31</v>
+        <v>214</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>206</v>
@@ -2159,27 +2227,25 @@
         <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>153</v>
+        <v>172</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -2190,22 +2256,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>153</v>
+        <v>233</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
         <v>102</v>
@@ -2216,22 +2282,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>153</v>
+        <v>210</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
         <v>104</v>
@@ -2242,22 +2306,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
         <v>106</v>
@@ -2268,22 +2330,20 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>177</v>
+        <v>212</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
         <v>108</v>
@@ -2294,705 +2354,706 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="29"/>
+        <v>170</v>
+      </c>
+      <c r="C9" s="25"/>
       <c r="D9" s="36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>235</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="36" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="55"/>
+        <v>174</v>
+      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="36" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="32">
+        <v>16</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="32">
+        <v>24</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>242</v>
+      </c>
       <c r="D13" s="36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>171</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="32">
+        <v>20</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>177</v>
+        <v>64</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="27"/>
       <c r="D27" s="36" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>235</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>237</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="D33" s="36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="D34" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>235</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C35" s="27"/>
       <c r="D35" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>235</v>
+        <v>7</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>235</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C38" s="29"/>
       <c r="D38" s="36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>235</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C39" s="29"/>
       <c r="D39" s="36" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>235</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C40" s="29"/>
       <c r="D40" s="36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="C41" s="29"/>
       <c r="D41" s="36" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="55"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="29"/>
       <c r="D42" s="36" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="D43" s="36" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="D44" s="36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="22"/>
       <c r="D45" s="36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>204</v>
@@ -3000,17 +3061,17 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="22"/>
       <c r="D46" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>204</v>
@@ -3018,172 +3079,180 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="D47" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="D48" s="36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="D49" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="55"/>
+        <v>7</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="D50" s="36" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="C51" s="22"/>
       <c r="D51" s="36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="23"/>
+        <v>149</v>
+      </c>
+      <c r="C52" s="22"/>
       <c r="D52" s="36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="59" t="s">
+        <v>166</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="C53" s="30"/>
       <c r="D53" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="C54" s="30"/>
       <c r="D54" s="36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="C55" s="30"/>
       <c r="D55" s="36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="36" t="s">
@@ -3193,554 +3262,422 @@
         <v>85</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D57" s="36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>235</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C58" s="30"/>
       <c r="D58" s="36" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="C59" s="30"/>
       <c r="D59" s="36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="C60" s="30"/>
       <c r="D60" s="36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
-        <v>12</v>
-      </c>
       <c r="B61" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>242</v>
+      </c>
       <c r="D61" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D62" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="32">
-        <v>16</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="36" t="s">
-        <v>10</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G64"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="29"/>
+        <v>216</v>
+      </c>
+      <c r="C65" s="23"/>
       <c r="D65" s="36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G65"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>235</v>
+        <v>161</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G66"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="C67" s="23"/>
       <c r="D67" s="36" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G67"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G68"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="32">
-        <v>24</v>
-      </c>
-      <c r="C69" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="23"/>
       <c r="D69" s="36" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G69"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>235</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C70" s="23"/>
       <c r="D70" s="36" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G70"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G71"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="D72" s="36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G72"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>235</v>
+        <v>25</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G73"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="30"/>
+        <v>178</v>
+      </c>
+      <c r="C74" s="23"/>
       <c r="D74" s="36" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G74"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G75"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>224</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="32">
-        <v>20</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E84" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F84" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" s="18"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F75" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F84">
-      <sortCondition ref="F2:F75"/>
+  <autoFilter ref="A2:F68" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F77">
+      <sortCondition ref="D2:D68"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F64">
-    <sortCondition ref="F3:F64"/>
-    <sortCondition ref="A3:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F57">
+    <sortCondition ref="F3:F57"/>
+    <sortCondition ref="A3:A57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3750,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="A70" sqref="A70:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,7 +4664,7 @@
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>40</v>
@@ -4737,10 +4674,10 @@
         <v>35</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4755,10 +4692,10 @@
         <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,10 +4710,10 @@
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4791,10 +4728,10 @@
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4809,10 +4746,10 @@
         <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4827,10 +4764,10 @@
         <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4848,7 +4785,7 @@
         <v>85</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4866,7 +4803,226 @@
         <v>85</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4879,10 +5035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,7 +5219,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" s="50">
         <f>AVERAGE(B8:B13)</f>
@@ -5074,11 +5230,6 @@
         <v>94.666666666666671</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2:A7"/>
@@ -5097,7 +5248,7 @@
   <dimension ref="A2:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,11 +5461,11 @@
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.41666666666666674</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.45833333333333343</v>
+        <v>0.56250000000000011</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -5356,59 +5507,59 @@
       </c>
       <c r="R4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="T4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="U4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="V4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="W4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="X4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Z4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AA4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB4" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="AC4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="T4" s="11" t="str">
+      <c r="AD4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="U4" s="11" t="str">
+      <c r="AE4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
-      </c>
-      <c r="V4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="W4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="X4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="Y4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="Z4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AA4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AC4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AD4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AE4" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
       </c>
       <c r="AF4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5484,11 +5635,11 @@
       </c>
       <c r="D5" s="44">
         <f ca="1">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.45833333333333343</v>
+        <v>0.56250000000000011</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.50000000000000011</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -5546,59 +5697,59 @@
       </c>
       <c r="V5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="W5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="X5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Z5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AA5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AC5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AD5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AE5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AF5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="W5" s="6" t="str">
+      <c r="AG5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="X5" s="6" t="str">
+      <c r="AH5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
       </c>
-      <c r="Y5" s="6" t="str">
+      <c r="AI5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>X</v>
-      </c>
-      <c r="Z5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AA5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AC5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AD5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AE5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AF5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AG5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AH5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AI5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
       </c>
       <c r="AJ5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5650,15 +5801,11 @@
         <f t="shared" ref="A6:A22" si="2">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="6">
-        <v>150</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.50000000000000011</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="E6" s="44">
         <f ca="1">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
@@ -5736,43 +5883,43 @@
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8587,7 +8734,7 @@
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8792,19 +8939,15 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11">
-        <v>120</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="45">
         <f t="shared" ref="D4:D21" ca="1" si="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.52083333333333326</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.60416666666666663</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -8886,35 +9029,35 @@
       </c>
       <c r="AB4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ4" s="11" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8967,18 +9110,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60416666666666663</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E5" s="44">
         <f t="shared" ref="E5:E22" ca="1" si="3">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.6875</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -9012,43 +9155,43 @@
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9092,35 +9235,35 @@
       </c>
       <c r="AJ5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AR5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9141,18 +9284,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C6" s="6">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.6875</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="E6" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -9226,35 +9369,35 @@
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9298,11 +9441,11 @@
       </c>
       <c r="AR6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AS6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AT6" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9314,15 +9457,19 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="6">
+        <v>120</v>
+      </c>
       <c r="D7" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -9428,39 +9575,39 @@
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AP7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9484,15 +9631,19 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="6">
+        <v>120</v>
+      </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -9634,19 +9785,19 @@
       </c>
       <c r="AQ8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AR8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AS8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AT8" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -9658,11 +9809,11 @@
       <c r="C9" s="6"/>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -9828,11 +9979,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -9998,11 +10149,11 @@
       <c r="C11" s="6"/>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -10168,11 +10319,11 @@
       <c r="C12" s="6"/>
       <c r="D12" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -10338,11 +10489,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -10508,11 +10659,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -10678,11 +10829,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -10848,11 +10999,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -11018,11 +11169,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -11188,11 +11339,11 @@
       <c r="C18" s="6"/>
       <c r="D18" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -11358,11 +11509,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -11528,11 +11679,11 @@
       <c r="C20" s="6"/>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -11698,11 +11849,11 @@
       <c r="C21" s="6"/>
       <c r="D21" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -11871,11 +12022,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="46">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -12026,7 +12177,7 @@
         <v/>
       </c>
       <c r="AT22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12082,7 +12233,7 @@
   <dimension ref="A2:AT24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12286,18 +12437,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="11">
         <v>60</v>
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.43750000000000006</v>
+        <v>0.36458333333333326</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.47916666666666674</v>
+        <v>0.40624999999999994</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -12319,19 +12470,19 @@
       </c>
       <c r="M4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12347,19 +12498,19 @@
       </c>
       <c r="T4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="V4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12460,18 +12611,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C5" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D5" s="44">
         <f t="shared" ref="D5:D11" ca="1" si="4">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.47916666666666674</v>
+        <v>0.40624999999999994</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.54166666666666674</v>
+        <v>0.44791666666666663</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -12509,19 +12660,19 @@
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ref="U5:AD7" ca="1" si="7">IF(U$3&gt;=$D5,IF(U$3&lt;$E5,"X",""),"")</f>
@@ -12537,27 +12688,27 @@
       </c>
       <c r="X5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12634,18 +12785,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C6" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D6" s="58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54166666666666674</v>
+        <v>0.44791666666666663</v>
       </c>
       <c r="E6" s="44">
         <f t="shared" ref="E6:E23" ca="1" si="10">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -12699,27 +12850,27 @@
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12735,19 +12886,19 @@
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE6" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF6" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG6" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH6" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -12808,22 +12959,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="C7" s="6">
         <v>60</v>
       </c>
       <c r="D7" s="44">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="14"/>
@@ -12897,19 +13048,19 @@
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -12925,19 +13076,19 @@
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12982,18 +13133,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C8" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63541666666666663</v>
+        <v>0.59374999999999989</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -13087,19 +13238,19 @@
       </c>
       <c r="AE8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13115,11 +13266,11 @@
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM8" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN8" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13155,19 +13306,19 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>243</v>
+      <c r="B9" s="61" t="s">
+        <v>247</v>
       </c>
       <c r="C9" s="6">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63541666666666663</v>
+        <v>0.59374999999999989</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65625</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -13277,27 +13428,27 @@
       </c>
       <c r="AI9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13330,18 +13481,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="6">
         <v>30</v>
       </c>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65625</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67708333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -13471,7 +13622,7 @@
       </c>
       <c r="AN10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13507,11 +13658,11 @@
         <v>78</v>
       </c>
       <c r="C11" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67708333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="10"/>
@@ -14528,7 +14679,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="44">
@@ -14700,18 +14851,18 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18" s="6">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D18" s="58">
         <f t="shared" ca="1" si="12"/>
-        <v>0.58333333333333337</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65625</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -14805,15 +14956,15 @@
       </c>
       <c r="AE18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -14841,7 +14992,7 @@
       </c>
       <c r="AN18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14874,14 +15025,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.61458333333333326</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="10"/>
@@ -15003,7 +15154,7 @@
       </c>
       <c r="AK19" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15051,11 +15202,11 @@
         <v>77</v>
       </c>
       <c r="C20" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.61458333333333326</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="10"/>
@@ -15177,7 +15328,7 @@
       </c>
       <c r="AK20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15391,8 +15542,8 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>245</v>
+      <c r="B22" s="61" t="s">
+        <v>240</v>
       </c>
       <c r="C22" s="6">
         <v>30</v>
@@ -15734,7 +15885,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15771,7 +15922,7 @@
   <sheetData>
     <row r="2" spans="1:66" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20830,7 +20981,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AU4:BN22 J4:AT23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B7E12-3F39-4124-9962-9B8C6C95C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5949C-2D98-42F2-88E0-0CEB94BACD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1650" windowWidth="37425" windowHeight="17400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="750" windowWidth="29160" windowHeight="19605" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
     <sheet name="Other Items" sheetId="7" r:id="rId2"/>
-    <sheet name="Cook Time" sheetId="2" r:id="rId3"/>
-    <sheet name="New Tuesday" sheetId="8" r:id="rId4"/>
-    <sheet name="New Wednesday" sheetId="9" r:id="rId5"/>
-    <sheet name="New Thanksgiving" sheetId="10" r:id="rId6"/>
-    <sheet name="Condensed Wednesday" sheetId="11" r:id="rId7"/>
+    <sheet name="New Tuesday" sheetId="8" r:id="rId3"/>
+    <sheet name="New Wednesday" sheetId="9" r:id="rId4"/>
+    <sheet name="New Thanksgiving" sheetId="10" r:id="rId5"/>
+    <sheet name="Condensed Wednesday" sheetId="11" r:id="rId6"/>
+    <sheet name="Cook Time" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Condensed Wednesday'!$A$2:$I$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'New Thanksgiving'!$A$2:$AT$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'New Tuesday'!$A$2:$AT$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'New Wednesday'!$A$2:$AT$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Condensed Wednesday'!$A$2:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'New Thanksgiving'!$A$2:$AT$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'New Tuesday'!$A$2:$AT$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'New Wednesday'!$A$2:$AT$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="271">
   <si>
     <t>Item</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Gather &amp; Wash Equipment</t>
   </si>
   <si>
-    <t>Gravy Prep</t>
-  </si>
-  <si>
     <t>14-15 lbs</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>Mashed Potatoes</t>
   </si>
   <si>
-    <t>Finish Gravy</t>
-  </si>
-  <si>
     <t>Spices</t>
   </si>
   <si>
@@ -732,15 +726,9 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>Pepper</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>1/2 Gallon</t>
   </si>
   <si>
@@ -756,21 +744,12 @@
     <t>Set Print Area Prior to Printing</t>
   </si>
   <si>
-    <t>Grill Prep</t>
-  </si>
-  <si>
-    <t>Grill Turkey</t>
-  </si>
-  <si>
     <t>Cool Down/Slack Time</t>
   </si>
   <si>
     <t>Baking/Roasting</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>Stuffing Prep</t>
   </si>
   <si>
@@ -789,7 +768,91 @@
     <t>Olive Oil</t>
   </si>
   <si>
-    <t>from Natural Grocers:</t>
+    <t>Smoked Turkey</t>
+  </si>
+  <si>
+    <t>Turkey Breast</t>
+  </si>
+  <si>
+    <t>2 x 6 pounds</t>
+  </si>
+  <si>
+    <t>2 sticks</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>1 bag</t>
+  </si>
+  <si>
+    <t>1 roll</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>Turkey Parts</t>
+  </si>
+  <si>
+    <t>Neck/Giblets</t>
+  </si>
+  <si>
+    <t>Chicken Bone Broth</t>
+  </si>
+  <si>
+    <t>Seasoned Salt (color)</t>
+  </si>
+  <si>
+    <t>Thick Aluminum Foil</t>
+  </si>
+  <si>
+    <t>Butter (unsalted)</t>
+  </si>
+  <si>
+    <t>Smoker Prep</t>
+  </si>
+  <si>
+    <t>Prepare Turkey Brine</t>
+  </si>
+  <si>
+    <t>Brine Turkey</t>
+  </si>
+  <si>
+    <t>Turkey Prep</t>
+  </si>
+  <si>
+    <t>Smoke Turkey</t>
+  </si>
+  <si>
+    <t>Turkey wrap</t>
+  </si>
+  <si>
+    <t>60 min in</t>
+  </si>
+  <si>
+    <t>~110°</t>
+  </si>
+  <si>
+    <t>60 min to 155</t>
+  </si>
+  <si>
+    <t>Warm Gravy</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>Finish Carrots</t>
   </si>
 </sst>
 </file>
@@ -831,7 +894,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1433,10 +1502,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1780,50 +1855,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57663</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105228</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16A43F2-B0B5-4827-5DEE-015200AEE766}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9210675" y="3848100"/>
-          <a:ext cx="3677163" cy="3248478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2158,10 +2189,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,7 +2227,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="5" t="s">
@@ -2204,21 +2235,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>206</v>
+      <c r="A3" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>166</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -2227,25 +2258,25 @@
         <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>89</v>
+      <c r="A4" s="59" t="s">
+        <v>225</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -2256,22 +2287,20 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
         <v>102</v>
@@ -2282,20 +2311,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>104</v>
@@ -2306,20 +2335,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>247</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
         <v>106</v>
@@ -2330,7 +2359,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>212</v>
@@ -2340,10 +2369,10 @@
         <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
         <v>108</v>
@@ -2354,668 +2383,654 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="25"/>
+        <v>245</v>
+      </c>
+      <c r="C10" s="61"/>
       <c r="D10" s="36" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="C11" s="55"/>
       <c r="D11" s="36" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="32">
-        <v>16</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32">
-        <v>24</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="36" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>242</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C14" s="27"/>
       <c r="D14" s="36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="32">
-        <v>20</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>242</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>227</v>
+      <c r="A16" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>242</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C16" s="30"/>
       <c r="D16" s="36" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>153</v>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="55"/>
+        <v>40</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="D19" s="36" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>249</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="36" t="s">
-        <v>153</v>
+        <v>98</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="36" t="s">
-        <v>153</v>
+        <v>86</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="D22" s="36" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>114</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C23" s="24"/>
       <c r="D23" s="36" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
+      <c r="D26" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="36" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
-        <v>24</v>
+      <c r="A29" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="36" t="s">
-        <v>10</v>
+        <v>212</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="36" t="s">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>114</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="D32" s="36" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>114</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C33" s="22"/>
       <c r="D33" s="36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D35" s="36" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>242</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C36" s="27"/>
       <c r="D36" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>242</v>
+        <v>36</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="29"/>
+        <v>248</v>
+      </c>
+      <c r="C38" s="61"/>
       <c r="D38" s="36" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>29</v>
+      <c r="A39" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="27"/>
       <c r="D39" s="36" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="29"/>
+        <v>244</v>
+      </c>
+      <c r="C40" s="61"/>
       <c r="D40" s="36" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="29"/>
+        <v>253</v>
+      </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="36" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="36" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>242</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C43" s="55"/>
       <c r="D43" s="36" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>199</v>
@@ -3023,19 +3038,17 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>114</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C44" s="30"/>
       <c r="D44" s="36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>199</v>
@@ -3043,78 +3056,74 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="C45" s="25"/>
       <c r="D45" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="22"/>
+        <v>124</v>
+      </c>
+      <c r="C46" s="30"/>
       <c r="D46" s="36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>242</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="36" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C48" s="30"/>
       <c r="D48" s="36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3124,34 +3133,30 @@
       <c r="B49" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>242</v>
-      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="36" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>242</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C50" s="55"/>
       <c r="D50" s="36" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>199</v>
@@ -3159,538 +3164,578 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="C51" s="27"/>
       <c r="D51" s="36" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="C52" s="25"/>
       <c r="D52" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
-        <v>166</v>
+      <c r="A53" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="27"/>
       <c r="D53" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="C54" s="27"/>
       <c r="D54" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="30"/>
+        <v>149</v>
+      </c>
+      <c r="C56" s="22"/>
       <c r="D56" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="30"/>
+        <v>39</v>
+      </c>
+      <c r="C58" s="29"/>
       <c r="D58" s="36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="C59" s="27"/>
       <c r="D59" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G60"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>242</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B61" s="32">
+        <v>16</v>
+      </c>
+      <c r="C61" s="25"/>
       <c r="D61" s="36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C64" s="30"/>
       <c r="D64" s="36" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="C65" s="55"/>
       <c r="D65" s="36" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G65"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>114</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B66" s="32">
+        <v>24</v>
+      </c>
+      <c r="C66" s="25"/>
       <c r="D66" s="36" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G66"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="C67" s="24"/>
       <c r="D67" s="36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="C68" s="25"/>
       <c r="D68" s="36" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G68"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="C69" s="24"/>
       <c r="D69" s="36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="61"/>
       <c r="D70" s="36" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>242</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C71" s="29"/>
       <c r="D71" s="36" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G71"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>114</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C72" s="30"/>
       <c r="D72" s="36" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G72"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>114</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C73" s="24"/>
       <c r="D73" s="36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G73"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="C74" s="24"/>
       <c r="D74" s="36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G74"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="61"/>
       <c r="D75" s="36" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G75"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>242</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C76" s="22"/>
       <c r="D76" s="36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="G77" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="32">
+        <v>20</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="63"/>
+      <c r="D79" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F68" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F77">
-      <sortCondition ref="D2:D68"/>
+  <autoFilter ref="A2:F79" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F80">
+      <sortCondition ref="F2:F79"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F57">
-    <sortCondition ref="F3:F57"/>
-    <sortCondition ref="A3:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F58">
+    <sortCondition ref="F3:F58"/>
+    <sortCondition ref="A3:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="74" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:F77"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,9 +3999,7 @@
       <c r="B18" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>114</v>
-      </c>
+      <c r="C18" s="33"/>
       <c r="D18" s="1" t="s">
         <v>137</v>
       </c>
@@ -4404,142 +4447,6 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
@@ -4664,7 +4571,7 @@
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>40</v>
@@ -4674,10 +4581,10 @@
         <v>35</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4692,10 +4599,10 @@
         <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4710,10 +4617,10 @@
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4728,10 +4635,10 @@
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4746,10 +4653,10 @@
         <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4764,10 +4671,10 @@
         <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4785,7 +4692,7 @@
         <v>85</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4803,28 +4710,26 @@
         <v>85</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C79" s="24"/>
       <c r="D79" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4832,19 +4737,17 @@
         <v>30</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>232</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C80" s="24"/>
       <c r="D80" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4854,17 +4757,15 @@
       <c r="B81" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C81" s="24"/>
       <c r="D81" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4874,17 +4775,15 @@
       <c r="B82" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C82" s="24"/>
       <c r="D82" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4894,35 +4793,33 @@
       <c r="B83" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C83" s="24"/>
       <c r="D83" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4930,59 +4827,53 @@
         <v>24</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>232</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C85" s="24"/>
       <c r="D85" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C86" s="24"/>
       <c r="D86" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C87" s="24"/>
       <c r="D87" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4992,17 +4883,15 @@
       <c r="B88" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C88" s="24"/>
       <c r="D88" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5012,17 +4901,250 @@
       <c r="B89" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="C89" s="24"/>
       <c r="D89" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5031,224 +5153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>2007</v>
-      </c>
-      <c r="B2" s="19">
-        <v>22.47</v>
-      </c>
-      <c r="C2" s="19">
-        <v>304</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="19">
-        <v>21.25</v>
-      </c>
-      <c r="C3" s="19">
-        <v>270</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>18.38</v>
-      </c>
-      <c r="C4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5">
-        <v>21.28</v>
-      </c>
-      <c r="C5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-      <c r="B6">
-        <v>20.69</v>
-      </c>
-      <c r="C6">
-        <f>180+45</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-      <c r="B7">
-        <v>23.42</v>
-      </c>
-      <c r="C7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-      <c r="B8">
-        <v>13.87</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-      <c r="B9">
-        <v>13.18</v>
-      </c>
-      <c r="C9">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-      <c r="B10">
-        <v>14.47</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>14.51</v>
-      </c>
-      <c r="C11">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>16.72</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2019</v>
-      </c>
-      <c r="B13">
-        <v>13.59</v>
-      </c>
-      <c r="C13">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="50">
-        <f>AVERAGE(B8:B13)</f>
-        <v>14.39</v>
-      </c>
-      <c r="C20" s="51">
-        <f>AVERAGE(C8:C13)</f>
-        <v>94.666666666666671</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-    <sortCondition ref="A2:A7"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AV30"/>
+  <dimension ref="A2:AV29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,11 +5373,11 @@
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.52083333333333348</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.56250000000000011</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -5491,19 +5403,19 @@
       </c>
       <c r="N4" s="11" t="str">
         <f ca="1">IF(N$3&gt;=$D4,IF(N$3&lt;$E4,"X",""),"")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5547,19 +5459,19 @@
       </c>
       <c r="AB4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5628,18 +5540,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="C5" s="6">
         <v>60</v>
       </c>
       <c r="D5" s="44">
         <f ca="1">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.56250000000000011</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.60416666666666674</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -5681,19 +5593,19 @@
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5737,19 +5649,19 @@
       </c>
       <c r="AF5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5801,15 +5713,19 @@
         <f t="shared" ref="A6:A22" si="2">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>120</v>
+      </c>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.60416666666666674</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="E6" s="44">
         <f ca="1">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.60416666666666674</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -5867,35 +5783,35 @@
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5979,11 +5895,11 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.60416666666666674</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">IF(ISNUMBER(G7),INDIRECT("D"&amp;G7+3),D7+TIME(0,C7,0))</f>
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -6073,19 +5989,19 @@
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6097,19 +6013,19 @@
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6145,15 +6061,19 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6">
+        <v>60</v>
+      </c>
       <c r="D8" s="44">
         <f ca="1">IF(ISNUMBER(F8),INDIRECT("E"&amp;F8+3),IF(ISNUMBER(G8),E8-TIME(0,C8,0),""))</f>
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E8" s="44">
         <f ca="1">IF(ISNUMBER(G8),INDIRECT("D"&amp;G8+3),D8+TIME(0,C8,0))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -6259,19 +6179,19 @@
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6319,11 +6239,11 @@
       <c r="C9" s="6"/>
       <c r="D9" s="44">
         <f t="shared" ref="D9:D20" ca="1" si="4">IF(ISNUMBER(F9),INDIRECT("E"&amp;F9+3),IF(ISNUMBER(G9),E9-TIME(0,C9,0),""))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ref="E9:E20" ca="1" si="5">IF(ISNUMBER(G9),INDIRECT("D"&amp;G9+3),D9+TIME(0,C9,0))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -6489,11 +6409,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -6659,11 +6579,11 @@
       <c r="C11" s="6"/>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -6829,11 +6749,11 @@
       <c r="C12" s="6"/>
       <c r="D12" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -6999,11 +6919,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -7169,11 +7089,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -7339,11 +7259,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -7509,11 +7429,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -7679,11 +7599,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -7849,11 +7769,11 @@
       <c r="C18" s="6"/>
       <c r="D18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -8019,11 +7939,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -8189,11 +8109,11 @@
       <c r="C20" s="6"/>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -8359,11 +8279,11 @@
       <c r="C21" s="6"/>
       <c r="D21" s="44">
         <f ca="1">IF(ISNUMBER(F21),INDIRECT("E"&amp;F21+3),IF(ISNUMBER(G21),E21-TIME(0,C21,0),""))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E21" s="44">
         <f ca="1">IF(ISNUMBER(G21),INDIRECT("D"&amp;G21+3),D21+TIME(0,C21,0))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -8532,11 +8452,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="46">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E22" s="46">
         <f ca="1">IF(ISNUMBER(G22),INDIRECT("D"&amp;G22+3),D22+TIME(0,C22,0))</f>
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -8655,11 +8575,11 @@
         <v/>
       </c>
       <c r="AL22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AM22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN22" s="16" t="str">
@@ -8711,9 +8631,6 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B29"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
@@ -8726,7 +8643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8734,7 +8651,7 @@
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8943,11 +8860,11 @@
       <c r="C4" s="11"/>
       <c r="D4" s="45">
         <f t="shared" ref="D4:D21" ca="1" si="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.39583333333333326</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.39583333333333326</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -9110,18 +9027,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="C5" s="6">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39583333333333326</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="E5" s="44">
         <f t="shared" ref="E5:E22" ca="1" si="3">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.49999999999999994</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -9147,11 +9064,11 @@
       </c>
       <c r="N5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9163,35 +9080,35 @@
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="V5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9284,18 +9201,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C6" s="6">
         <v>120</v>
       </c>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" ca="1" si="3"/>
         <v>0.49999999999999994</v>
-      </c>
-      <c r="E6" s="44">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.58333333333333326</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -9337,67 +9254,67 @@
       </c>
       <c r="R6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9458,18 +9375,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
       </c>
       <c r="D7" s="44">
         <f t="shared" ca="1" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" ca="1" si="3"/>
         <v>0.58333333333333326</v>
-      </c>
-      <c r="E7" s="44">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.66666666666666663</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -9543,71 +9460,71 @@
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9632,18 +9549,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -9749,27 +9666,27 @@
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9785,19 +9702,19 @@
       </c>
       <c r="AQ8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AR8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AS8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AT8" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -9805,15 +9722,19 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30</v>
+      </c>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -9943,15 +9864,15 @@
       </c>
       <c r="AN9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AP9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9979,11 +9900,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -10149,11 +10070,11 @@
       <c r="C11" s="6"/>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -10319,11 +10240,11 @@
       <c r="C12" s="6"/>
       <c r="D12" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -10489,11 +10410,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -10659,11 +10580,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -10829,11 +10750,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -10999,11 +10920,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -11169,11 +11090,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -11339,11 +11260,11 @@
       <c r="C18" s="6"/>
       <c r="D18" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -11509,11 +11430,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -11679,11 +11600,11 @@
       <c r="C20" s="6"/>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -11849,11 +11770,11 @@
       <c r="C21" s="6"/>
       <c r="D21" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E21" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -12022,11 +11943,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="46">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E22" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -12165,19 +12086,19 @@
         <v/>
       </c>
       <c r="AQ22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS22" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT22" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -12225,15 +12146,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AT24"/>
+  <dimension ref="A2:AT34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12437,18 +12358,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="11">
         <v>60</v>
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.36458333333333326</v>
+        <v>0.39583333333333343</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.40624999999999994</v>
+        <v>0.43750000000000011</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -12470,31 +12391,31 @@
       </c>
       <c r="M4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P4" s="39" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="N4" s="39" t="str">
+      <c r="Q4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="O4" s="39" t="str">
+      <c r="R4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
       </c>
-      <c r="P4" s="39" t="str">
+      <c r="S4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>X</v>
-      </c>
-      <c r="Q4" s="39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R4" s="39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S4" s="39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
       </c>
       <c r="T4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12610,19 +12531,15 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="6">
-        <v>60</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="44">
         <f t="shared" ref="D5:D11" ca="1" si="4">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.40624999999999994</v>
+        <v>0.43750000000000011</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.44791666666666663</v>
+        <v>0.43750000000000011</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -12660,19 +12577,19 @@
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ref="U5:AD7" ca="1" si="7">IF(U$3&gt;=$D5,IF(U$3&lt;$E5,"X",""),"")</f>
@@ -12785,18 +12702,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="6">
         <v>90</v>
       </c>
       <c r="D6" s="58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44791666666666663</v>
+        <v>0.43750000000000011</v>
       </c>
       <c r="E6" s="44">
         <f t="shared" ref="E6:E23" ca="1" si="10">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.51041666666666663</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -12846,7 +12763,7 @@
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12870,7 +12787,7 @@
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12959,18 +12876,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D7" s="44">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.51041666666666663</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55208333333333326</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -13044,23 +12961,23 @@
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -13133,22 +13050,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="C8" s="6">
         <v>60</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55208333333333326</v>
+        <v>0.46875000000000006</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59374999999999989</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="14"/>
@@ -13206,19 +13123,19 @@
       </c>
       <c r="W8" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X8" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y8" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z8" s="6" t="str">
         <f t="shared" ref="Z8:AK14" ca="1" si="11">IF(Z$3&gt;=$D8,IF(Z$3&lt;$E8,"X",""),"")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13238,19 +13155,19 @@
       </c>
       <c r="AE8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13306,19 +13223,19 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>247</v>
+      <c r="B9" s="60" t="s">
+        <v>240</v>
       </c>
       <c r="C9" s="6">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59374999999999989</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64583333333333326</v>
+        <v>0.59375</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -13396,55 +13313,55 @@
       </c>
       <c r="AA9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN9" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13481,22 +13398,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="C10" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64583333333333326</v>
+        <v>0.59375</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="14"/>
@@ -13602,7 +13519,7 @@
       </c>
       <c r="AI10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13622,15 +13539,15 @@
       </c>
       <c r="AN10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13655,18 +13572,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="C11" s="6">
         <v>30</v>
       </c>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -13776,11 +13693,11 @@
       </c>
       <c r="AI11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13808,7 +13725,7 @@
       </c>
       <c r="AQ11" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AR11" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13828,15 +13745,19 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6">
+        <v>15</v>
+      </c>
       <c r="D12" s="44">
         <f t="shared" ref="D12:D22" ca="1" si="12">IF(ISNUMBER(F12),INDIRECT("E"&amp;F12+3),IF(ISNUMBER(G12),E12-TIME(0,C12,0),""))</f>
-        <v>0.6875</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -13954,7 +13875,7 @@
       </c>
       <c r="AK12" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL12" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14002,11 +13923,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -14172,11 +14093,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -14342,11 +14263,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -14512,11 +14433,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -14679,16 +14600,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -14851,22 +14772,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C18" s="6">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D18" s="58">
         <f t="shared" ca="1" si="12"/>
-        <v>0.55208333333333326</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64583333333333326</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="14"/>
@@ -14940,19 +14861,19 @@
       </c>
       <c r="AA18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -14980,15 +14901,15 @@
       </c>
       <c r="AK18" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15025,18 +14946,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="6">
         <v>75</v>
       </c>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61458333333333326</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -15130,23 +15051,23 @@
       </c>
       <c r="AE19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ19" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -15154,27 +15075,27 @@
       </c>
       <c r="AK19" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15206,11 +15127,11 @@
       </c>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61458333333333326</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -15304,23 +15225,23 @@
       </c>
       <c r="AE20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15328,27 +15249,27 @@
       </c>
       <c r="AK20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP20" s="6" t="str">
         <f t="shared" ref="AL20:AT23" ca="1" si="15">IF(AP$3&gt;=$D20,IF(AP$3&lt;$E20,"X",""),"")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ20" s="6" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -15372,15 +15293,19 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6">
+        <v>75</v>
+      </c>
       <c r="D21" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.66666666666666663</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E21" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -15474,23 +15399,23 @@
       </c>
       <c r="AE21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15542,19 +15467,19 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>240</v>
+      <c r="B22" s="60" t="s">
+        <v>234</v>
       </c>
       <c r="C22" s="6">
         <v>30</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E22" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
@@ -15668,11 +15593,11 @@
       </c>
       <c r="AJ22" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK22" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL22" s="6" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -15696,7 +15621,7 @@
       </c>
       <c r="AQ22" s="6" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AR22" s="6" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -15721,11 +15646,11 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="46">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="E23" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15844,27 +15769,27 @@
         <v/>
       </c>
       <c r="AL23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR23" s="16" t="str">
@@ -15882,6 +15807,30 @@
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4:AT23">
@@ -15894,7 +15843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF644570-B41D-4075-B336-358D80B3FEB8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15922,7 +15871,7 @@
   <sheetData>
     <row r="2" spans="1:66" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20988,4 +20937,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="19">
+        <v>22.47</v>
+      </c>
+      <c r="C2" s="19">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="19">
+        <v>21.25</v>
+      </c>
+      <c r="C3" s="19">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>18.38</v>
+      </c>
+      <c r="C4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>21.28</v>
+      </c>
+      <c r="C5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>20.69</v>
+      </c>
+      <c r="C6">
+        <f>180+45</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>23.42</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>13.87</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>13.18</v>
+      </c>
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>14.47</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>14.51</v>
+      </c>
+      <c r="C11">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <v>16.72</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>13.59</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="50">
+        <f>AVERAGE(B8:B13)</f>
+        <v>14.39</v>
+      </c>
+      <c r="C20" s="51">
+        <f>AVERAGE(C8:C13)</f>
+        <v>94.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Turkey Plan - Shopping List.xlsx
+++ b/Turkey Plan - Shopping List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5949C-2D98-42F2-88E0-0CEB94BACD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A6C169-67BA-49E0-A834-8914381ED02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="750" windowWidth="29160" windowHeight="19605" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="870" windowWidth="29130" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Cook Time" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$A$2:$F$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Condensed Wednesday'!$A$2:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'New Thanksgiving'!$A$2:$AT$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'New Tuesday'!$A$2:$AT$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'New Wednesday'!$A$2:$AT$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$F$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="281">
   <si>
     <t>Item</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Unsalted Butter</t>
   </si>
   <si>
-    <t>9 T</t>
-  </si>
-  <si>
     <t>White Flour</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Shallots</t>
   </si>
   <si>
-    <t>2t</t>
-  </si>
-  <si>
     <t>Tuesday Schedule</t>
   </si>
   <si>
@@ -411,12 +405,6 @@
     <t>Done for the Day</t>
   </si>
   <si>
-    <t>6T</t>
-  </si>
-  <si>
-    <t>3 cloves</t>
-  </si>
-  <si>
     <t>Portabello Mushroom</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>1-1/2 loaves</t>
   </si>
   <si>
-    <t>24 oz</t>
-  </si>
-  <si>
     <t>24 oz (2 bags)</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t>Liquor Store</t>
   </si>
   <si>
-    <t>1 C</t>
-  </si>
-  <si>
     <t>King Soopers</t>
   </si>
   <si>
@@ -717,9 +699,6 @@
     <t>Butter</t>
   </si>
   <si>
-    <t>Flour</t>
-  </si>
-  <si>
     <t>Baking</t>
   </si>
   <si>
@@ -828,9 +807,6 @@
     <t>Turkey Prep</t>
   </si>
   <si>
-    <t>Smoke Turkey</t>
-  </si>
-  <si>
     <t>Turkey wrap</t>
   </si>
   <si>
@@ -853,6 +829,60 @@
   </si>
   <si>
     <t>Finish Carrots</t>
+  </si>
+  <si>
+    <t>CR-v Tire Installation</t>
+  </si>
+  <si>
+    <t>Slice Dressing Bread</t>
+  </si>
+  <si>
+    <t>Whipped Cream</t>
+  </si>
+  <si>
+    <t>Smoke &amp; Rest Turkey</t>
+  </si>
+  <si>
+    <t>Turkey Broth</t>
+  </si>
+  <si>
+    <t>2 Sticks</t>
+  </si>
+  <si>
+    <t>6T+3T</t>
+  </si>
+  <si>
+    <t>4+2 large</t>
+  </si>
+  <si>
+    <t>6+3 stalks</t>
+  </si>
+  <si>
+    <t>3+2 cloves</t>
+  </si>
+  <si>
+    <t>3/4+1/3 cups</t>
+  </si>
+  <si>
+    <t>24+12 oz</t>
+  </si>
+  <si>
+    <t>1+1.2 T</t>
+  </si>
+  <si>
+    <t>2+1 t</t>
+  </si>
+  <si>
+    <t>1 + 1/2 C</t>
+  </si>
+  <si>
+    <t>Gluten Free Bread</t>
+  </si>
+  <si>
+    <t>3/4 Loaf</t>
+  </si>
+  <si>
+    <t>GF Flour</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,7 +1541,16 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2189,10 +2228,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,7 +2248,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2224,1065 +2263,1057 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="36" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
         <v>102</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="36" t="s">
-        <v>153</v>
+        <v>202</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="36" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
         <v>106</v>
-      </c>
-      <c r="I7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
         <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="36" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="61"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="36" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="C11" s="24"/>
       <c r="D11" s="36" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="36" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="29"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="36" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C18" s="25"/>
       <c r="D18" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C19" s="25"/>
       <c r="D19" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
+      </c>
+      <c r="B21" s="32">
+        <v>16</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>114</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B22" s="32">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="C23" s="25"/>
       <c r="D23" s="36" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="32">
+        <v>20</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>28</v>
+      <c r="A25" s="59" t="s">
+        <v>280</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>114</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C25" s="55"/>
       <c r="D25" s="36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C26" s="55"/>
       <c r="D26" s="36" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="C27" s="55"/>
       <c r="D27" s="36" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>148</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="C32" s="55"/>
       <c r="D32" s="36" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="36" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>35</v>
+        <v>85</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C37" s="27"/>
       <c r="D37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="61"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="36" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
-        <v>24</v>
+      <c r="A39" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="C40" s="27"/>
       <c r="D40" s="36" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C42" s="27"/>
       <c r="D42" s="36" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="55"/>
+        <v>16</v>
+      </c>
+      <c r="C43" s="27"/>
       <c r="D43" s="36" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="30"/>
+        <v>13</v>
+      </c>
+      <c r="C44" s="27"/>
       <c r="D44" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="25"/>
+        <v>110</v>
+      </c>
+      <c r="C45" s="27"/>
       <c r="D45" s="36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="27"/>
       <c r="D46" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="30"/>
+        <v>160</v>
+      </c>
+      <c r="C48" s="29"/>
       <c r="D48" s="36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="C49" s="29"/>
       <c r="D49" s="36" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="D50" s="36" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="D51" s="36" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="29"/>
       <c r="D54" s="36" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="30"/>
+        <v>240</v>
+      </c>
+      <c r="C55" s="61"/>
       <c r="D55" s="36" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="C56" s="61"/>
       <c r="D56" s="36" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="27"/>
+        <v>241</v>
+      </c>
+      <c r="C57" s="61"/>
       <c r="D57" s="36" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>199</v>
@@ -3290,240 +3321,243 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="29"/>
+        <v>237</v>
+      </c>
+      <c r="C58" s="61"/>
       <c r="D58" s="36" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="61"/>
       <c r="D59" s="36" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="C60" s="61"/>
       <c r="D60" s="36" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="32">
-        <v>16</v>
-      </c>
-      <c r="C61" s="25"/>
+      <c r="A61" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="30"/>
       <c r="D61" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>188</v>
+      <c r="A62" s="59" t="s">
+        <v>278</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="C62" s="30"/>
       <c r="D62" s="36" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="29"/>
+        <v>269</v>
+      </c>
+      <c r="C63" s="30"/>
       <c r="D63" s="36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="30"/>
+        <v>270</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="D64" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="55"/>
+        <v>271</v>
+      </c>
+      <c r="C65" s="30"/>
       <c r="D65" s="36" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G65"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="32">
-        <v>24</v>
-      </c>
-      <c r="C66" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="30"/>
       <c r="D66" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="24"/>
+        <v>273</v>
+      </c>
+      <c r="C67" s="30"/>
       <c r="D67" s="36" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="25"/>
+        <v>270</v>
+      </c>
+      <c r="C68" s="30"/>
       <c r="D68" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="24"/>
+        <v>274</v>
+      </c>
+      <c r="C69" s="30"/>
       <c r="D69" s="36" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="C70" s="30"/>
       <c r="D70" s="36" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3531,193 +3565,217 @@
         <v>3</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="29"/>
+        <v>276</v>
+      </c>
+      <c r="C71" s="30"/>
       <c r="D71" s="36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G71"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G72"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C73" s="22"/>
       <c r="D73" s="36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="D74" s="36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="61"/>
+        <v>24</v>
+      </c>
+      <c r="C75" s="22"/>
       <c r="D75" s="36" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="D76" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="32">
-        <v>20</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="36" t="s">
-        <v>33</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="C78" s="22"/>
       <c r="D78" s="36" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" s="63"/>
+        <v>145</v>
+      </c>
+      <c r="C79" s="22"/>
       <c r="D79" s="36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="18"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="G80"/>
+        <v>193</v>
+      </c>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="66"/>
+      <c r="D80" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F79" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F80">
-      <sortCondition ref="F2:F79"/>
+  <autoFilter ref="A2:F80" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F81">
+      <sortCondition ref="D2:D80"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F58">
@@ -3760,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3771,74 +3829,74 @@
         <v>6</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>60</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3846,29 +3904,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3876,14 +3934,14 @@
         <v>11</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3891,29 +3949,29 @@
         <v>11</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3921,14 +3979,14 @@
         <v>22</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3936,14 +3994,14 @@
         <v>22</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3955,10 +4013,10 @@
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3966,14 +4024,14 @@
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,56 +4043,56 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4046,10 +4104,10 @@
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4057,243 +4115,243 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B36" s="32">
         <v>1</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="32">
         <v>2</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4301,29 +4359,29 @@
         <v>22</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4332,180 +4390,180 @@
         <v>4</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4513,14 +4571,14 @@
         <v>3</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C65" s="34"/>
       <c r="D65" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4528,81 +4586,81 @@
         <v>11</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="34"/>
       <c r="D67" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4610,162 +4668,162 @@
         <v>4</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,107 +4831,107 @@
         <v>22</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4885,86 +4943,86 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="36" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4972,35 +5030,35 @@
         <v>12</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5008,53 +5066,53 @@
         <v>3</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5062,35 +5120,35 @@
         <v>11</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5098,17 +5156,17 @@
         <v>18</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5116,35 +5174,35 @@
         <v>22</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5218,7 @@
   <dimension ref="A2:AV29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,36 +5238,36 @@
   <sheetData>
     <row r="2" spans="1:48" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="7">
         <v>0.33333333333333331</v>
@@ -5365,19 +5423,19 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>159</v>
+      <c r="B4" s="63" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.37500000000000006</v>
+        <v>0.35416666666666685</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.41666666666666674</v>
+        <v>0.37500000000000017</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -5395,27 +5453,27 @@
       </c>
       <c r="L4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N4" s="11" t="str">
         <f ca="1">IF(N$3&gt;=$D4,IF(N$3&lt;$E4,"X",""),"")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="O4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="P4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Q4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="R4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5539,19 +5597,19 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>259</v>
+      <c r="B5" s="64" t="s">
+        <v>264</v>
       </c>
       <c r="C5" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D5" s="44">
         <f ca="1">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.41666666666666674</v>
+        <v>0.37500000000000017</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.45833333333333343</v>
+        <v>0.39583333333333348</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -5577,11 +5635,11 @@
       </c>
       <c r="N5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5593,19 +5651,19 @@
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="V5" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5713,19 +5771,19 @@
         <f t="shared" ref="A6:A22" si="2">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
+      <c r="B6" s="64" t="s">
+        <v>252</v>
       </c>
       <c r="C6" s="6">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.45833333333333343</v>
+        <v>0.39583333333333348</v>
       </c>
       <c r="E6" s="44">
         <f ca="1">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.54166666666666674</v>
+        <v>0.4166666666666668</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -5759,11 +5817,11 @@
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5783,35 +5841,35 @@
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5887,19 +5945,19 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
+      <c r="B7" s="64" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D7" s="44">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.54166666666666674</v>
+        <v>0.4166666666666668</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">IF(ISNUMBER(G7),INDIRECT("D"&amp;G7+3),D7+TIME(0,C7,0))</f>
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -5941,43 +5999,43 @@
       </c>
       <c r="R7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5989,19 +6047,19 @@
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6061,19 +6119,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6">
-        <v>60</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="44">
         <f ca="1">IF(ISNUMBER(F8),INDIRECT("E"&amp;F8+3),IF(ISNUMBER(G8),E8-TIME(0,C8,0),""))</f>
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="E8" s="44">
         <f ca="1">IF(ISNUMBER(G8),INDIRECT("D"&amp;G8+3),D8+TIME(0,C8,0))</f>
-        <v>0.625</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -6179,19 +6233,19 @@
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6239,11 +6293,11 @@
       <c r="C9" s="6"/>
       <c r="D9" s="44">
         <f t="shared" ref="D9:D20" ca="1" si="4">IF(ISNUMBER(F9),INDIRECT("E"&amp;F9+3),IF(ISNUMBER(G9),E9-TIME(0,C9,0),""))</f>
-        <v>0.625</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ref="E9:E20" ca="1" si="5">IF(ISNUMBER(G9),INDIRECT("D"&amp;G9+3),D9+TIME(0,C9,0))</f>
-        <v>0.625</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -6405,15 +6459,19 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="6">
+        <v>150</v>
+      </c>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -6495,43 +6553,43 @@
       </c>
       <c r="AB10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6575,15 +6633,19 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>60</v>
+      </c>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -6705,23 +6767,23 @@
       </c>
       <c r="AL11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AP11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -6745,15 +6807,19 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6">
+        <v>60</v>
+      </c>
       <c r="D12" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -6895,15 +6961,15 @@
       </c>
       <c r="AQ12" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AR12" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AS12" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AT12" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -6919,11 +6985,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -7089,11 +7155,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -7259,11 +7325,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -7429,11 +7495,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -7599,11 +7665,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -7769,11 +7835,11 @@
       <c r="C18" s="6"/>
       <c r="D18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -7939,11 +8005,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -8109,11 +8175,11 @@
       <c r="C20" s="6"/>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -8279,11 +8345,11 @@
       <c r="C21" s="6"/>
       <c r="D21" s="44">
         <f ca="1">IF(ISNUMBER(F21),INDIRECT("E"&amp;F21+3),IF(ISNUMBER(G21),E21-TIME(0,C21,0),""))</f>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E21" s="44">
         <f ca="1">IF(ISNUMBER(G21),INDIRECT("D"&amp;G21+3),D21+TIME(0,C21,0))</f>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -8445,18 +8511,18 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>122</v>
+      <c r="B22" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
       </c>
       <c r="D22" s="46">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E22" s="46">
         <f ca="1">IF(ISNUMBER(G22),INDIRECT("D"&amp;G22+3),D22+TIME(0,C22,0))</f>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -8575,35 +8641,35 @@
         <v/>
       </c>
       <c r="AL22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS22" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT22" s="17" t="str">
@@ -8651,7 +8717,7 @@
   <dimension ref="A2:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8671,36 +8737,36 @@
   <sheetData>
     <row r="2" spans="1:48" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="7">
         <v>0.33333333333333331</v>
@@ -8860,11 +8926,11 @@
       <c r="C4" s="11"/>
       <c r="D4" s="45">
         <f t="shared" ref="D4:D21" ca="1" si="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.37499999999999994</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.37499999999999994</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -9026,19 +9092,15 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="6">
-        <v>60</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37499999999999994</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E5" s="44">
         <f t="shared" ref="E5:E22" ca="1" si="3">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.41666666666666663</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -9064,19 +9126,19 @@
       </c>
       <c r="N5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="R5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9200,19 +9262,19 @@
         <f t="shared" ref="A6:A22" si="4">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>236</v>
+      <c r="B6" s="64" t="s">
+        <v>229</v>
       </c>
       <c r="C6" s="6">
         <v>120</v>
       </c>
       <c r="D6" s="44">
         <f ca="1">IF(ISNUMBER(F6),INDIRECT("E"&amp;F6+3),IF(ISNUMBER(G6),E6-TIME(0,C6,0),""))</f>
-        <v>0.41666666666666663</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E6" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49999999999999994</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -9230,27 +9292,27 @@
       </c>
       <c r="L6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9262,27 +9324,27 @@
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9374,19 +9436,19 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>237</v>
+      <c r="B7" s="64" t="s">
+        <v>230</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
       </c>
       <c r="D7" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49999999999999994</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58333333333333326</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -9436,27 +9498,27 @@
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9468,27 +9530,27 @@
       </c>
       <c r="AB7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9548,19 +9610,19 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>238</v>
+      <c r="B8" s="64" t="s">
+        <v>231</v>
       </c>
       <c r="C8" s="6">
         <v>90</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="1"/>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" ca="1" si="3"/>
         <v>0.58333333333333326</v>
-      </c>
-      <c r="E8" s="44">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.64583333333333326</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -9642,51 +9704,51 @@
       </c>
       <c r="AB8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AM8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9722,19 +9784,19 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>260</v>
+      <c r="B9" s="64" t="s">
+        <v>251</v>
       </c>
       <c r="C9" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64583333333333326</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999989</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -9840,19 +9902,19 @@
       </c>
       <c r="AH9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9864,15 +9926,15 @@
       </c>
       <c r="AN9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AP9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9896,15 +9958,19 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30</v>
+      </c>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.62499999999999989</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
@@ -10026,11 +10092,11 @@
       </c>
       <c r="AL10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -10066,11 +10132,15 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30</v>
+      </c>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ca="1" si="3"/>
@@ -10204,15 +10274,15 @@
       </c>
       <c r="AN11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AP11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11936,8 +12006,8 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>122</v>
+      <c r="B22" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12153,8 +12223,8 @@
   </sheetPr>
   <dimension ref="A2:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12174,36 +12244,36 @@
   <sheetData>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="7">
         <v>0.33333333333333331</v>
@@ -12357,19 +12427,19 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>194</v>
+      <c r="B4" s="63" t="s">
+        <v>188</v>
       </c>
       <c r="C4" s="11">
         <v>60</v>
       </c>
       <c r="D4" s="45">
         <f ca="1">IF(ISNUMBER(F4),INDIRECT("E"&amp;F4+3),IF(ISNUMBER(G4),E4-TIME(0,C4,0),""))</f>
-        <v>0.39583333333333343</v>
+        <v>0.375</v>
       </c>
       <c r="E4" s="45">
         <f ca="1">IF(ISNUMBER(G4),INDIRECT("D"&amp;G4+3),D4+TIME(0,C4,0))</f>
-        <v>0.43750000000000011</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
@@ -12395,11 +12465,11 @@
       </c>
       <c r="N4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12411,11 +12481,11 @@
       </c>
       <c r="R4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T4" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12535,11 +12605,11 @@
       <c r="C5" s="6"/>
       <c r="D5" s="44">
         <f t="shared" ref="D5:D11" ca="1" si="4">IF(ISNUMBER(F5),INDIRECT("E"&amp;F5+3),IF(ISNUMBER(G5),E5-TIME(0,C5,0),""))</f>
-        <v>0.43750000000000011</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="44">
         <f ca="1">IF(ISNUMBER(G5),INDIRECT("D"&amp;G5+3),D5+TIME(0,C5,0))</f>
-        <v>0.43750000000000011</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -12701,23 +12771,23 @@
         <f t="shared" ref="A6:A23" si="9">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>196</v>
+      <c r="B6" s="64" t="s">
+        <v>232</v>
       </c>
       <c r="C6" s="6">
-        <v>90</v>
-      </c>
-      <c r="D6" s="58">
+        <v>60</v>
+      </c>
+      <c r="D6" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43750000000000011</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E6" s="44">
         <f t="shared" ref="E6:E23" ca="1" si="10">IF(ISNUMBER(G6),INDIRECT("D"&amp;G6+3),D6+TIME(0,C6,0))</f>
-        <v>0.50000000000000011</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="14"/>
@@ -12755,11 +12825,11 @@
       </c>
       <c r="R6" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S6" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -12771,19 +12841,19 @@
       </c>
       <c r="V6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12875,19 +12945,19 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>261</v>
+      <c r="B7" s="64" t="s">
+        <v>254</v>
       </c>
       <c r="C7" s="6">
         <v>15</v>
       </c>
       <c r="D7" s="44">
         <f ca="1">IF(ISNUMBER(F7),INDIRECT("E"&amp;F7+3),IF(ISNUMBER(G7),E7-TIME(0,C7,0),""))</f>
-        <v>0.50000000000000011</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51041666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -12941,7 +13011,7 @@
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="V7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -12961,7 +13031,7 @@
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -13049,23 +13119,23 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>239</v>
+      <c r="B8" s="64" t="s">
+        <v>190</v>
       </c>
       <c r="C8" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46875000000000006</v>
+        <v>0.47916666666666674</v>
       </c>
       <c r="E8" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51041666666666674</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="14"/>
@@ -13123,7 +13193,7 @@
       </c>
       <c r="W8" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="X8" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -13139,15 +13209,15 @@
       </c>
       <c r="AA8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13223,23 +13293,19 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="6">
-        <v>120</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51041666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59375</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="14"/>
@@ -13313,35 +13379,35 @@
       </c>
       <c r="AA9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AE9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AF9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AH9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13397,23 +13463,23 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>267</v>
+      <c r="B10" s="60" t="s">
+        <v>233</v>
       </c>
       <c r="C10" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59375</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="E10" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="14"/>
@@ -13499,19 +13565,19 @@
       </c>
       <c r="AD10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AG10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13519,7 +13585,7 @@
       </c>
       <c r="AI10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13572,22 +13638,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6">
         <v>30</v>
       </c>
       <c r="D11" s="44">
         <f t="shared" ca="1" si="4"/>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E11" s="44">
+        <f t="shared" ca="1" si="10"/>
         <v>0.59375</v>
-      </c>
-      <c r="E11" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.61458333333333337</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="14"/>
@@ -13685,19 +13751,19 @@
       </c>
       <c r="AG11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13746,22 +13812,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="C12" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D12" s="44">
         <f t="shared" ref="D12:D22" ca="1" si="12">IF(ISNUMBER(F12),INDIRECT("E"&amp;F12+3),IF(ISNUMBER(G12),E12-TIME(0,C12,0),""))</f>
-        <v>0.61458333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E12" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="14"/>
@@ -13859,11 +13925,11 @@
       </c>
       <c r="AG12" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AH12" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI12" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13875,7 +13941,7 @@
       </c>
       <c r="AK12" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL12" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13919,19 +13985,23 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6">
+        <v>15</v>
+      </c>
       <c r="D13" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="14"/>
@@ -14033,7 +14103,7 @@
       </c>
       <c r="AH13" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI13" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -14093,11 +14163,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -14263,11 +14333,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -14433,11 +14503,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -14600,16 +14670,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E17" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -14772,22 +14842,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C18" s="6">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D18" s="58">
         <f t="shared" ca="1" si="12"/>
-        <v>0.51041666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61458333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="14"/>
@@ -14841,23 +14911,23 @@
       </c>
       <c r="V18" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W18" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="X18" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y18" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AA18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -14889,15 +14959,15 @@
       </c>
       <c r="AH18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI18" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ18" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK18" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -14946,18 +15016,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C19" s="6">
         <v>75</v>
       </c>
       <c r="D19" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.55208333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E19" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -15047,7 +15117,7 @@
       </c>
       <c r="AD19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15067,7 +15137,7 @@
       </c>
       <c r="AI19" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ19" s="6" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -15120,18 +15190,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6">
         <v>75</v>
       </c>
       <c r="D20" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.55208333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E20" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -15221,7 +15291,7 @@
       </c>
       <c r="AD20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15241,7 +15311,7 @@
       </c>
       <c r="AI20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ20" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15294,18 +15364,18 @@
         <v>18</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>75</v>
       </c>
       <c r="D21" s="44">
         <f t="shared" ca="1" si="12"/>
-        <v>0.55208333333333326</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E21" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -15395,7 +15465,7 @@
       </c>
       <c r="AD21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AE21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15415,7 +15485,7 @@
       </c>
       <c r="AI21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AJ21" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -15468,18 +15538,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C22" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" ca="1" si="12"/>
+        <v>0.59375</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" ca="1" si="10"/>
         <v>0.60416666666666663</v>
-      </c>
-      <c r="E22" s="44">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
@@ -15589,15 +15659,15 @@
       </c>
       <c r="AI22" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AJ22" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AK22" s="6" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL22" s="6" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -15642,15 +15712,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="46">
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E23" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -15761,11 +15831,11 @@
         <v/>
       </c>
       <c r="AJ23" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK23" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL23" s="16" t="str">
@@ -15810,26 +15880,26 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -15871,36 +15941,36 @@
   <sheetData>
     <row r="2" spans="1:66" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="7">
         <v>0.29166666666666669</v>
@@ -16135,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="11">
         <v>60</v>
@@ -16389,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="6">
         <v>60</v>
@@ -16643,7 +16713,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6">
         <v>150</v>
@@ -16897,7 +16967,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>60</v>
@@ -17151,7 +17221,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6">
         <v>120</v>
@@ -17405,7 +17475,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>120</v>
@@ -20659,7 +20729,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -20960,13 +21030,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -20980,7 +21050,7 @@
         <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -20994,7 +21064,7 @@
         <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -21053,7 +21123,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -21067,7 +21137,7 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -21081,7 +21151,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -21095,7 +21165,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -21109,7 +21179,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -21123,12 +21193,12 @@
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B20" s="50">
         <f>AVERAGE(B8:B13)</f>
